--- a/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,22 +632,22 @@
         <v>0.9999346490392929</v>
       </c>
       <c r="E3">
-        <v>1.0000163362728</v>
+        <v>0.9999346490392929</v>
       </c>
       <c r="F3">
         <v>1.0000163362728</v>
       </c>
       <c r="G3">
+        <v>1.0000163362728</v>
+      </c>
+      <c r="H3">
         <v>1.000043569499515</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.9999640569152335</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.0000163362728</v>
-      </c>
-      <c r="J3">
-        <v>0.9999346490392929</v>
       </c>
       <c r="K3">
         <v>1.0000163362728</v>
@@ -728,7 +680,7 @@
         <v>0.9999985473787406</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -742,22 +694,22 @@
         <v>0.9998738408886226</v>
       </c>
       <c r="E4">
-        <v>1.000031536710164</v>
+        <v>0.9998738408886226</v>
       </c>
       <c r="F4">
         <v>1.000031536710164</v>
       </c>
       <c r="G4">
+        <v>1.000031536710164</v>
+      </c>
+      <c r="H4">
         <v>1.000084109098684</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.9999306130915886</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.000031536710164</v>
-      </c>
-      <c r="J4">
-        <v>0.9998738408886226</v>
       </c>
       <c r="K4">
         <v>1.000031536710164</v>
@@ -790,7 +742,7 @@
         <v>0.9999971955348976</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,25 +753,25 @@
         <v>1.000060439682944</v>
       </c>
       <c r="D5">
-        <v>0.9997582316080441</v>
+        <v>0.9997582316080438</v>
       </c>
       <c r="E5">
-        <v>1.000060439682944</v>
+        <v>0.9997582316080438</v>
       </c>
       <c r="F5">
         <v>1.000060439682944</v>
       </c>
       <c r="G5">
+        <v>1.000060439682944</v>
+      </c>
+      <c r="H5">
         <v>1.00016118211385</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.9998670247570285</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.000060439682944</v>
-      </c>
-      <c r="J5">
-        <v>0.9997582316080441</v>
       </c>
       <c r="K5">
         <v>1.000060439682944</v>
@@ -828,31 +780,31 @@
         <v>1.000060439682944</v>
       </c>
       <c r="M5">
-        <v>0.9999093356454942</v>
+        <v>0.9999093356454941</v>
       </c>
       <c r="N5">
-        <v>0.9999093356454942</v>
+        <v>0.9999093356454941</v>
       </c>
       <c r="O5">
         <v>0.9998952320160056</v>
       </c>
       <c r="P5">
-        <v>0.9999597036579777</v>
+        <v>0.9999597036579776</v>
       </c>
       <c r="Q5">
-        <v>0.9999597036579777</v>
+        <v>0.9999597036579776</v>
       </c>
       <c r="R5">
-        <v>0.9999848876642194</v>
+        <v>0.9999848876642192</v>
       </c>
       <c r="S5">
-        <v>0.9999848876642194</v>
+        <v>0.9999848876642192</v>
       </c>
       <c r="T5">
         <v>0.999994626254626</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -866,22 +818,22 @@
         <v>0.9996454045253692</v>
       </c>
       <c r="E6">
-        <v>1.000088639335028</v>
+        <v>0.9996454045253692</v>
       </c>
       <c r="F6">
         <v>1.000088639335028</v>
       </c>
       <c r="G6">
+        <v>1.000088639335028</v>
+      </c>
+      <c r="H6">
         <v>1.000236402954576</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9998049741674401</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.000088639335028</v>
-      </c>
-      <c r="J6">
-        <v>0.9996454045253692</v>
       </c>
       <c r="K6">
         <v>1.000088639335028</v>
@@ -914,7 +866,7 @@
         <v>0.9999921166087451</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,25 +877,25 @@
         <v>1.000001250579469</v>
       </c>
       <c r="D7">
-        <v>0.9999949936378895</v>
+        <v>0.9999949936378894</v>
       </c>
       <c r="E7">
-        <v>1.000001250579469</v>
+        <v>0.9999949936378894</v>
       </c>
       <c r="F7">
         <v>1.000001250579469</v>
       </c>
       <c r="G7">
+        <v>1.000001250579469</v>
+      </c>
+      <c r="H7">
         <v>1.000003339469771</v>
       </c>
-      <c r="H7">
-        <v>0.9999972469212343</v>
-      </c>
       <c r="I7">
+        <v>0.9999972469212345</v>
+      </c>
+      <c r="J7">
         <v>1.000001250579469</v>
-      </c>
-      <c r="J7">
-        <v>0.9999949936378895</v>
       </c>
       <c r="K7">
         <v>1.000001250579469</v>
@@ -952,19 +904,19 @@
         <v>1.000001250579469</v>
       </c>
       <c r="M7">
-        <v>0.9999981221086791</v>
+        <v>0.999998122108679</v>
       </c>
       <c r="N7">
-        <v>0.9999981221086791</v>
+        <v>0.999998122108679</v>
       </c>
       <c r="O7">
         <v>0.9999978303795308</v>
       </c>
       <c r="P7">
-        <v>0.9999991649322757</v>
+        <v>0.9999991649322756</v>
       </c>
       <c r="Q7">
-        <v>0.9999991649322757</v>
+        <v>0.9999991649322756</v>
       </c>
       <c r="R7">
         <v>0.9999996863440739</v>
@@ -976,7 +928,7 @@
         <v>0.9999998886278835</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -990,22 +942,22 @@
         <v>0.9999854917439506</v>
       </c>
       <c r="E8">
-        <v>1.00000362602804</v>
+        <v>0.9999854917439506</v>
       </c>
       <c r="F8">
         <v>1.00000362602804</v>
       </c>
       <c r="G8">
+        <v>1.00000362602804</v>
+      </c>
+      <c r="H8">
         <v>1.00000967402313</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.9999920208051866</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.00000362602804</v>
-      </c>
-      <c r="J8">
-        <v>0.9999854917439506</v>
       </c>
       <c r="K8">
         <v>1.00000362602804</v>
@@ -1038,7 +990,7 @@
         <v>0.9999996774427311</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1052,22 +1004,22 @@
         <v>0.9999799801512443</v>
       </c>
       <c r="E9">
-        <v>1.000005003611292</v>
+        <v>0.9999799801512443</v>
       </c>
       <c r="F9">
         <v>1.000005003611292</v>
       </c>
       <c r="G9">
+        <v>1.000005003611292</v>
+      </c>
+      <c r="H9">
         <v>1.000013347992601</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9999889900544788</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.000005003611292</v>
-      </c>
-      <c r="J9">
-        <v>0.9999799801512443</v>
       </c>
       <c r="K9">
         <v>1.000005003611292</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999995548386997</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,22 +1066,22 @@
         <v>0.9999567311207644</v>
       </c>
       <c r="E10">
-        <v>1.000010815964835</v>
+        <v>0.9999567311207644</v>
       </c>
       <c r="F10">
         <v>1.000010815964835</v>
       </c>
       <c r="G10">
+        <v>1.000010815964835</v>
+      </c>
+      <c r="H10">
         <v>1.00002884824147</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.9999762015583677</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.000010815964835</v>
-      </c>
-      <c r="J10">
-        <v>0.9999567311207644</v>
       </c>
       <c r="K10">
         <v>1.000010815964835</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999990381358511</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1176,22 +1128,22 @@
         <v>0.999927540127946</v>
       </c>
       <c r="E11">
-        <v>1.000018112632871</v>
+        <v>0.999927540127946</v>
       </c>
       <c r="F11">
         <v>1.000018112632871</v>
       </c>
       <c r="G11">
+        <v>1.000018112632871</v>
+      </c>
+      <c r="H11">
         <v>1.000048307244884</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9999601478627195</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.000018112632871</v>
-      </c>
-      <c r="J11">
-        <v>0.999927540127946</v>
       </c>
       <c r="K11">
         <v>1.000018112632871</v>
@@ -1200,31 +1152,31 @@
         <v>1.000018112632871</v>
       </c>
       <c r="M11">
-        <v>0.9999728263804084</v>
+        <v>0.9999728263804086</v>
       </c>
       <c r="N11">
-        <v>0.9999728263804084</v>
+        <v>0.9999728263804086</v>
       </c>
       <c r="O11">
-        <v>0.9999686002078455</v>
+        <v>0.9999686002078456</v>
       </c>
       <c r="P11">
-        <v>0.9999879217978959</v>
+        <v>0.9999879217978961</v>
       </c>
       <c r="Q11">
-        <v>0.9999879217978959</v>
+        <v>0.9999879217978961</v>
       </c>
       <c r="R11">
-        <v>0.9999954695066396</v>
+        <v>0.9999954695066398</v>
       </c>
       <c r="S11">
-        <v>0.9999954695066396</v>
+        <v>0.9999954695066398</v>
       </c>
       <c r="T11">
         <v>0.9999983888556937</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1238,22 +1190,22 @@
         <v>1.001024454427962</v>
       </c>
       <c r="E12">
-        <v>0.9997438839930276</v>
+        <v>1.001024454427962</v>
       </c>
       <c r="F12">
         <v>0.9997438839930276</v>
       </c>
       <c r="G12">
-        <v>0.9993170335654568</v>
+        <v>0.9997438839930276</v>
       </c>
       <c r="H12">
+        <v>0.9993170335654566</v>
+      </c>
+      <c r="I12">
         <v>1.000563447471753</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.9997438839930276</v>
-      </c>
-      <c r="J12">
-        <v>1.001024454427962</v>
       </c>
       <c r="K12">
         <v>0.9997438839930276</v>
@@ -1286,7 +1238,7 @@
         <v>1.000022764574042</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999335888361706</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="D13">
         <v>1.000265646361155</v>
       </c>
       <c r="E13">
-        <v>0.9999335888361706</v>
+        <v>1.000265646361155</v>
       </c>
       <c r="F13">
-        <v>0.9999335888361706</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="G13">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="H13">
         <v>0.9998229023328564</v>
       </c>
-      <c r="H13">
-        <v>1.000146100462314</v>
-      </c>
       <c r="I13">
-        <v>0.9999335888361706</v>
+        <v>1.000146100462313</v>
       </c>
       <c r="J13">
-        <v>1.000265646361155</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="K13">
-        <v>0.9999335888361706</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="L13">
-        <v>0.9999335888361706</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="M13">
         <v>1.000099617598663</v>
@@ -1348,7 +1300,7 @@
         <v>1.000005902610806</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9991987576358311</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="D14">
         <v>1.003204966717466</v>
       </c>
       <c r="E14">
-        <v>0.9991987576358311</v>
+        <v>1.003204966717466</v>
       </c>
       <c r="F14">
-        <v>0.9991987576358311</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="G14">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="H14">
         <v>0.9978633559699731</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.001762729985097</v>
       </c>
-      <c r="I14">
-        <v>0.9991987576358311</v>
-      </c>
       <c r="J14">
-        <v>1.003204966717466</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="K14">
-        <v>0.9991987576358311</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="L14">
-        <v>0.9991987576358311</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="M14">
         <v>1.001201862176649</v>
@@ -1410,7 +1362,7 @@
         <v>1.000071220930005</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1424,22 +1376,22 @@
         <v>1.000855599207405</v>
       </c>
       <c r="E15">
-        <v>0.9997860993542457</v>
+        <v>1.000855599207405</v>
       </c>
       <c r="F15">
         <v>0.9997860993542457</v>
       </c>
       <c r="G15">
-        <v>0.999429601250447</v>
+        <v>0.9997860993542457</v>
       </c>
       <c r="H15">
+        <v>0.9994296012504473</v>
+      </c>
+      <c r="I15">
         <v>1.000470581567174</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.9997860993542457</v>
-      </c>
-      <c r="J15">
-        <v>1.000855599207405</v>
       </c>
       <c r="K15">
         <v>0.9997860993542457</v>
@@ -1472,7 +1424,7 @@
         <v>1.000019013347961</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000066395113</v>
+        <v>1.00031872825791</v>
       </c>
       <c r="D16">
-        <v>0.9999997301884272</v>
+        <v>0.9987250763157386</v>
       </c>
       <c r="E16">
-        <v>1.000000066395113</v>
+        <v>0.9987250763157386</v>
       </c>
       <c r="F16">
-        <v>1.000000066395113</v>
+        <v>1.00031872825791</v>
       </c>
       <c r="G16">
-        <v>1.000000181735696</v>
+        <v>1.00031872825791</v>
       </c>
       <c r="H16">
-        <v>0.9999998520140821</v>
+        <v>1.000849952768021</v>
       </c>
       <c r="I16">
-        <v>1.000000066395113</v>
+        <v>0.9992987855433498</v>
       </c>
       <c r="J16">
-        <v>0.9999997301884272</v>
+        <v>1.00031872825791</v>
       </c>
       <c r="K16">
-        <v>1.000000066395113</v>
+        <v>1.00031872825791</v>
       </c>
       <c r="L16">
-        <v>1.000000066395113</v>
+        <v>1.00031872825791</v>
       </c>
       <c r="M16">
-        <v>0.9999998982917704</v>
+        <v>0.999521902286824</v>
       </c>
       <c r="N16">
-        <v>0.9999998982917704</v>
+        <v>0.999521902286824</v>
       </c>
       <c r="O16">
-        <v>0.9999998828658744</v>
+        <v>0.9994475300389993</v>
       </c>
       <c r="P16">
-        <v>0.999999954326218</v>
+        <v>0.9997875109438525</v>
       </c>
       <c r="Q16">
-        <v>0.999999954326218</v>
+        <v>0.9997875109438525</v>
       </c>
       <c r="R16">
-        <v>0.9999999823434419</v>
+        <v>0.9999203152723668</v>
       </c>
       <c r="S16">
-        <v>0.9999999823434419</v>
+        <v>0.9999203152723668</v>
       </c>
       <c r="T16">
-        <v>0.9999999938539242</v>
+        <v>0.9999716665668062</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000001427602111</v>
+        <v>1.000261008779481</v>
       </c>
       <c r="D17">
-        <v>0.9999942847460146</v>
+        <v>0.9989559554504933</v>
       </c>
       <c r="E17">
-        <v>1.000001427602111</v>
+        <v>0.9989559554504933</v>
       </c>
       <c r="F17">
-        <v>1.000001427602111</v>
+        <v>1.000261008779481</v>
       </c>
       <c r="G17">
-        <v>1.00000381159924</v>
+        <v>1.000261008779481</v>
       </c>
       <c r="H17">
-        <v>0.9999968574399551</v>
+        <v>1.00069603272891</v>
       </c>
       <c r="I17">
-        <v>1.000001427602111</v>
+        <v>0.9994257713507685</v>
       </c>
       <c r="J17">
-        <v>0.9999942847460146</v>
+        <v>1.000261008779481</v>
       </c>
       <c r="K17">
-        <v>1.000001427602111</v>
+        <v>1.000261008779481</v>
       </c>
       <c r="L17">
-        <v>1.000001427602111</v>
+        <v>1.000261008779481</v>
       </c>
       <c r="M17">
-        <v>0.9999978561740628</v>
+        <v>0.9996084821149871</v>
       </c>
       <c r="N17">
-        <v>0.9999978561740628</v>
+        <v>0.9996084821149871</v>
       </c>
       <c r="O17">
-        <v>0.9999975232626935</v>
+        <v>0.9995475785269142</v>
       </c>
       <c r="P17">
-        <v>0.9999990466500789</v>
+        <v>0.9998259910031516</v>
       </c>
       <c r="Q17">
-        <v>0.9999990466500789</v>
+        <v>0.9998259910031516</v>
       </c>
       <c r="R17">
-        <v>0.999999641888087</v>
+        <v>0.9999347454472339</v>
       </c>
       <c r="S17">
-        <v>0.999999641888087</v>
+        <v>0.9999347454472339</v>
       </c>
       <c r="T17">
-        <v>0.9999998727652571</v>
+        <v>0.9999767976447691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000005028184289</v>
+        <v>1.000145307064747</v>
       </c>
       <c r="D18">
-        <v>0.9999798780408458</v>
+        <v>0.9994187594385935</v>
       </c>
       <c r="E18">
-        <v>1.000005028184289</v>
+        <v>0.9994187594385935</v>
       </c>
       <c r="F18">
-        <v>1.000005028184289</v>
+        <v>1.000145307064747</v>
       </c>
       <c r="G18">
-        <v>1.000013414182644</v>
+        <v>1.000145307064747</v>
       </c>
       <c r="H18">
-        <v>0.9999889301065364</v>
+        <v>1.000387495859506</v>
       </c>
       <c r="I18">
-        <v>1.000005028184289</v>
+        <v>0.9996803219072163</v>
       </c>
       <c r="J18">
-        <v>0.9999798780408458</v>
+        <v>1.000145307064747</v>
       </c>
       <c r="K18">
-        <v>1.000005028184289</v>
+        <v>1.000145307064747</v>
       </c>
       <c r="L18">
-        <v>1.000005028184289</v>
+        <v>1.000145307064747</v>
       </c>
       <c r="M18">
-        <v>0.9999924531125672</v>
+        <v>0.9997820332516703</v>
       </c>
       <c r="N18">
-        <v>0.9999924531125672</v>
+        <v>0.9997820332516703</v>
       </c>
       <c r="O18">
-        <v>0.9999912787772236</v>
+        <v>0.9997481294701857</v>
       </c>
       <c r="P18">
-        <v>0.999996644803141</v>
+        <v>0.9999031245226959</v>
       </c>
       <c r="Q18">
-        <v>0.999996644803141</v>
+        <v>0.9999031245226959</v>
       </c>
       <c r="R18">
-        <v>0.9999987406484279</v>
+        <v>0.9999636701582086</v>
       </c>
       <c r="S18">
-        <v>0.9999987406484279</v>
+        <v>0.9999636701582086</v>
       </c>
       <c r="T18">
-        <v>0.9999995511471486</v>
+        <v>0.9999870830665927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="D19">
+        <v>0.9993522241994848</v>
+      </c>
+      <c r="E19">
+        <v>0.9993522241994848</v>
+      </c>
+      <c r="F19">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="G19">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="H19">
+        <v>1.00043184956043</v>
+      </c>
+      <c r="I19">
+        <v>0.9996437211412574</v>
+      </c>
+      <c r="J19">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="K19">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="L19">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="M19">
+        <v>0.9997570816711752</v>
+      </c>
+      <c r="N19">
+        <v>0.9997570816711752</v>
+      </c>
+      <c r="O19">
+        <v>0.9997192948278691</v>
+      </c>
+      <c r="P19">
+        <v>0.9998920341617387</v>
+      </c>
+      <c r="Q19">
+        <v>0.9998920341617387</v>
+      </c>
+      <c r="R19">
+        <v>0.9999595104070204</v>
+      </c>
+      <c r="S19">
+        <v>0.9999595104070204</v>
+      </c>
+      <c r="T19">
+        <v>0.9999856020549615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="D20">
+        <v>0.9999997301884272</v>
+      </c>
+      <c r="E20">
+        <v>0.9999997301884272</v>
+      </c>
+      <c r="F20">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="G20">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="H20">
+        <v>1.000000181735696</v>
+      </c>
+      <c r="I20">
+        <v>0.9999998520140821</v>
+      </c>
+      <c r="J20">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="K20">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="L20">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="M20">
+        <v>0.9999998982917702</v>
+      </c>
+      <c r="N20">
+        <v>0.9999998982917702</v>
+      </c>
+      <c r="O20">
+        <v>0.9999998828658742</v>
+      </c>
+      <c r="P20">
+        <v>0.9999999543262179</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999999543262179</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999823434418</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999823434418</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999938539242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="D21">
+        <v>0.9999942847460145</v>
+      </c>
+      <c r="E21">
+        <v>0.9999942847460145</v>
+      </c>
+      <c r="F21">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="G21">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="H21">
+        <v>1.00000381159924</v>
+      </c>
+      <c r="I21">
+        <v>0.9999968574399551</v>
+      </c>
+      <c r="J21">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="K21">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="L21">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="M21">
+        <v>0.9999978561740628</v>
+      </c>
+      <c r="N21">
+        <v>0.9999978561740628</v>
+      </c>
+      <c r="O21">
+        <v>0.9999975232626935</v>
+      </c>
+      <c r="P21">
+        <v>0.9999990466500789</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999990466500789</v>
+      </c>
+      <c r="R21">
+        <v>0.999999641888087</v>
+      </c>
+      <c r="S21">
+        <v>0.999999641888087</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998727652571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="D22">
+        <v>0.9999798780408458</v>
+      </c>
+      <c r="E22">
+        <v>0.9999798780408458</v>
+      </c>
+      <c r="F22">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="G22">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="H22">
+        <v>1.000013414182644</v>
+      </c>
+      <c r="I22">
+        <v>0.9999889301065364</v>
+      </c>
+      <c r="J22">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="K22">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="L22">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="M22">
+        <v>0.9999924531125672</v>
+      </c>
+      <c r="N22">
+        <v>0.9999924531125672</v>
+      </c>
+      <c r="O22">
+        <v>0.9999912787772236</v>
+      </c>
+      <c r="P22">
+        <v>0.999996644803141</v>
+      </c>
+      <c r="Q22">
+        <v>0.999996644803141</v>
+      </c>
+      <c r="R22">
+        <v>0.9999987406484279</v>
+      </c>
+      <c r="S22">
+        <v>0.9999987406484279</v>
+      </c>
+      <c r="T22">
+        <v>0.9999995511471486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000011783238443</v>
       </c>
-      <c r="D19">
-        <v>0.9999528636742961</v>
-      </c>
-      <c r="E19">
+      <c r="D23">
+        <v>0.999952863674296</v>
+      </c>
+      <c r="E23">
+        <v>0.999952863674296</v>
+      </c>
+      <c r="F23">
         <v>1.000011783238443</v>
       </c>
-      <c r="F19">
+      <c r="G23">
         <v>1.000011783238443</v>
       </c>
-      <c r="G19">
+      <c r="H23">
         <v>1.00003142674451</v>
       </c>
-      <c r="H19">
+      <c r="I23">
         <v>0.9999740766238689</v>
       </c>
-      <c r="I19">
+      <c r="J23">
         <v>1.000011783238443</v>
       </c>
-      <c r="J19">
-        <v>0.9999528636742961</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000011783238443</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000011783238443</v>
       </c>
-      <c r="M19">
-        <v>0.9999823234563694</v>
-      </c>
-      <c r="N19">
-        <v>0.9999823234563694</v>
-      </c>
-      <c r="O19">
+      <c r="M23">
+        <v>0.9999823234563693</v>
+      </c>
+      <c r="N23">
+        <v>0.9999823234563693</v>
+      </c>
+      <c r="O23">
         <v>0.9999795745122025</v>
       </c>
-      <c r="P19">
-        <v>0.9999921433837272</v>
-      </c>
-      <c r="Q19">
-        <v>0.9999921433837272</v>
-      </c>
-      <c r="R19">
-        <v>0.9999970533474061</v>
-      </c>
-      <c r="S19">
-        <v>0.9999970533474061</v>
-      </c>
-      <c r="T19">
-        <v>0.9999989527930006</v>
+      <c r="P23">
+        <v>0.999992143383727</v>
+      </c>
+      <c r="Q23">
+        <v>0.999992143383727</v>
+      </c>
+      <c r="R23">
+        <v>0.9999970533474059</v>
+      </c>
+      <c r="S23">
+        <v>0.9999970533474059</v>
+      </c>
+      <c r="T23">
+        <v>0.9999989527930003</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0000163362728</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="D3">
-        <v>0.9999346490392929</v>
+        <v>0.9992704877521609</v>
       </c>
       <c r="E3">
-        <v>0.9999346490392929</v>
+        <v>0.9992704877521609</v>
       </c>
       <c r="F3">
-        <v>1.0000163362728</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="G3">
-        <v>1.0000163362728</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="H3">
-        <v>1.000043569499515</v>
+        <v>1.000486343285302</v>
       </c>
       <c r="I3">
-        <v>0.9999640569152335</v>
+        <v>0.9995987686455363</v>
       </c>
       <c r="J3">
-        <v>1.0000163362728</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="K3">
-        <v>1.0000163362728</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="L3">
-        <v>1.0000163362728</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="M3">
-        <v>0.9999754926560466</v>
+        <v>0.9997264315922192</v>
       </c>
       <c r="N3">
-        <v>0.9999754926560466</v>
+        <v>0.9997264315922192</v>
       </c>
       <c r="O3">
-        <v>0.9999716807424422</v>
+        <v>0.9996838772766582</v>
       </c>
       <c r="P3">
-        <v>0.9999891071949646</v>
+        <v>0.9998784128722388</v>
       </c>
       <c r="Q3">
-        <v>0.9999891071949646</v>
+        <v>0.9998784128722388</v>
       </c>
       <c r="R3">
-        <v>0.9999959144644235</v>
+        <v>0.9999544035122485</v>
       </c>
       <c r="S3">
-        <v>0.9999959144644235</v>
+        <v>0.9999544035122485</v>
       </c>
       <c r="T3">
-        <v>0.9999985473787406</v>
+        <v>0.9999837876633054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000031536710164</v>
+        <v>1.000162275922482</v>
       </c>
       <c r="D4">
-        <v>0.9998738408886226</v>
+        <v>0.9993508877115181</v>
       </c>
       <c r="E4">
-        <v>0.9998738408886226</v>
+        <v>0.9993508877115181</v>
       </c>
       <c r="F4">
-        <v>1.000031536710164</v>
+        <v>1.000162275922482</v>
       </c>
       <c r="G4">
-        <v>1.000031536710164</v>
+        <v>1.000162275922482</v>
       </c>
       <c r="H4">
-        <v>1.000084109098684</v>
+        <v>1.00043274331718</v>
       </c>
       <c r="I4">
-        <v>0.9999306130915886</v>
+        <v>0.9996429886470316</v>
       </c>
       <c r="J4">
-        <v>1.000031536710164</v>
+        <v>1.000162275922482</v>
       </c>
       <c r="K4">
-        <v>1.000031536710164</v>
+        <v>1.000162275922482</v>
       </c>
       <c r="L4">
-        <v>1.000031536710164</v>
+        <v>1.000162275922482</v>
       </c>
       <c r="M4">
-        <v>0.999952688799393</v>
+        <v>0.9997565818170002</v>
       </c>
       <c r="N4">
-        <v>0.999952688799393</v>
+        <v>0.9997565818170002</v>
       </c>
       <c r="O4">
-        <v>0.9999453302301249</v>
+        <v>0.9997187174270107</v>
       </c>
       <c r="P4">
-        <v>0.9999789714363164</v>
+        <v>0.9998918131854942</v>
       </c>
       <c r="Q4">
-        <v>0.9999789714363164</v>
+        <v>0.9998918131854942</v>
       </c>
       <c r="R4">
-        <v>0.9999921127547782</v>
+        <v>0.9999594288697413</v>
       </c>
       <c r="S4">
-        <v>0.9999921127547782</v>
+        <v>0.9999594288697413</v>
       </c>
       <c r="T4">
-        <v>0.9999971955348976</v>
+        <v>0.9999855745738627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000060439682944</v>
+        <v>1.000220373477089</v>
       </c>
       <c r="D5">
-        <v>0.9997582316080438</v>
+        <v>0.99911847078167</v>
       </c>
       <c r="E5">
-        <v>0.9997582316080438</v>
+        <v>0.99911847078167</v>
       </c>
       <c r="F5">
-        <v>1.000060439682944</v>
+        <v>1.000220373477089</v>
       </c>
       <c r="G5">
-        <v>1.000060439682944</v>
+        <v>1.000220373477089</v>
       </c>
       <c r="H5">
-        <v>1.00016118211385</v>
+        <v>1.000587688571428</v>
       </c>
       <c r="I5">
-        <v>0.9998670247570285</v>
+        <v>0.9995151647169811</v>
       </c>
       <c r="J5">
-        <v>1.000060439682944</v>
+        <v>1.000220373477089</v>
       </c>
       <c r="K5">
-        <v>1.000060439682944</v>
+        <v>1.000220373477089</v>
       </c>
       <c r="L5">
-        <v>1.000060439682944</v>
+        <v>1.000220373477089</v>
       </c>
       <c r="M5">
-        <v>0.9999093356454941</v>
+        <v>0.9996694221293795</v>
       </c>
       <c r="N5">
-        <v>0.9999093356454941</v>
+        <v>0.9996694221293795</v>
       </c>
       <c r="O5">
-        <v>0.9998952320160056</v>
+        <v>0.9996180029919133</v>
       </c>
       <c r="P5">
-        <v>0.9999597036579776</v>
+        <v>0.9998530725786159</v>
       </c>
       <c r="Q5">
-        <v>0.9999597036579776</v>
+        <v>0.9998530725786159</v>
       </c>
       <c r="R5">
-        <v>0.9999848876642192</v>
+        <v>0.9999448978032341</v>
       </c>
       <c r="S5">
-        <v>0.9999848876642192</v>
+        <v>0.9999448978032341</v>
       </c>
       <c r="T5">
-        <v>0.999994626254626</v>
+        <v>0.9999804074168911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000088639335028</v>
+        <v>1.000255658977272</v>
       </c>
       <c r="D6">
-        <v>0.9996454045253692</v>
+        <v>0.9989773381818172</v>
       </c>
       <c r="E6">
-        <v>0.9996454045253692</v>
+        <v>0.9989773381818172</v>
       </c>
       <c r="F6">
-        <v>1.000088639335028</v>
+        <v>1.000255658977272</v>
       </c>
       <c r="G6">
-        <v>1.000088639335028</v>
+        <v>1.000255658977272</v>
       </c>
       <c r="H6">
-        <v>1.000236402954576</v>
+        <v>1.00068177340909</v>
       </c>
       <c r="I6">
-        <v>0.9998049741674401</v>
+        <v>0.9994375332954542</v>
       </c>
       <c r="J6">
-        <v>1.000088639335028</v>
+        <v>1.000255658977272</v>
       </c>
       <c r="K6">
-        <v>1.000088639335028</v>
+        <v>1.000255658977272</v>
       </c>
       <c r="L6">
-        <v>1.000088639335028</v>
+        <v>1.000255658977272</v>
       </c>
       <c r="M6">
-        <v>0.9998670219301988</v>
+        <v>0.9996164985795448</v>
       </c>
       <c r="N6">
-        <v>0.9998670219301988</v>
+        <v>0.9996164985795448</v>
       </c>
       <c r="O6">
-        <v>0.9998463393426126</v>
+        <v>0.999556843484848</v>
       </c>
       <c r="P6">
-        <v>0.9999408943984753</v>
+        <v>0.999829552045454</v>
       </c>
       <c r="Q6">
-        <v>0.9999408943984753</v>
+        <v>0.999829552045454</v>
       </c>
       <c r="R6">
-        <v>0.9999778306326136</v>
+        <v>0.9999360787784086</v>
       </c>
       <c r="S6">
-        <v>0.9999778306326136</v>
+        <v>0.9999360787784086</v>
       </c>
       <c r="T6">
-        <v>0.9999921166087451</v>
+        <v>0.9999772703030297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000001250579469</v>
+        <v>1.001005500000008</v>
       </c>
       <c r="D7">
-        <v>0.9999949936378894</v>
+        <v>0.9959778999999982</v>
       </c>
       <c r="E7">
-        <v>0.9999949936378894</v>
+        <v>0.9959778999999982</v>
       </c>
       <c r="F7">
-        <v>1.000001250579469</v>
+        <v>1.001005500000008</v>
       </c>
       <c r="G7">
-        <v>1.000001250579469</v>
+        <v>1.001005500000008</v>
       </c>
       <c r="H7">
-        <v>1.000003339469771</v>
+        <v>1.002681400000001</v>
       </c>
       <c r="I7">
-        <v>0.9999972469212345</v>
+        <v>0.9977878500000057</v>
       </c>
       <c r="J7">
-        <v>1.000001250579469</v>
+        <v>1.001005500000008</v>
       </c>
       <c r="K7">
-        <v>1.000001250579469</v>
+        <v>1.001005500000008</v>
       </c>
       <c r="L7">
-        <v>1.000001250579469</v>
+        <v>1.001005500000008</v>
       </c>
       <c r="M7">
-        <v>0.999998122108679</v>
+        <v>0.9984917000000031</v>
       </c>
       <c r="N7">
-        <v>0.999998122108679</v>
+        <v>0.9984917000000031</v>
       </c>
       <c r="O7">
-        <v>0.9999978303795308</v>
+        <v>0.9982570833333373</v>
       </c>
       <c r="P7">
-        <v>0.9999991649322756</v>
+        <v>0.9993296333333381</v>
       </c>
       <c r="Q7">
-        <v>0.9999991649322756</v>
+        <v>0.9993296333333381</v>
       </c>
       <c r="R7">
-        <v>0.9999996863440739</v>
+        <v>0.9997486000000055</v>
       </c>
       <c r="S7">
-        <v>0.9999996863440739</v>
+        <v>0.9997486000000055</v>
       </c>
       <c r="T7">
-        <v>0.9999998886278835</v>
+        <v>0.9999106083333382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000362602804</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="D8">
-        <v>0.9999854917439506</v>
+        <v>0.9959778999999983</v>
       </c>
       <c r="E8">
-        <v>0.9999854917439506</v>
+        <v>0.9959778999999983</v>
       </c>
       <c r="F8">
-        <v>1.00000362602804</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="G8">
-        <v>1.00000362602804</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="H8">
-        <v>1.00000967402313</v>
+        <v>1.002681400000001</v>
       </c>
       <c r="I8">
-        <v>0.9999920208051866</v>
+        <v>0.9977878499999963</v>
       </c>
       <c r="J8">
-        <v>1.00000362602804</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="K8">
-        <v>1.00000362602804</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="L8">
-        <v>1.00000362602804</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="M8">
-        <v>0.9999945588859951</v>
+        <v>0.9984916999999964</v>
       </c>
       <c r="N8">
-        <v>0.9999945588859951</v>
+        <v>0.9984916999999964</v>
       </c>
       <c r="O8">
-        <v>0.9999937128590589</v>
+        <v>0.9982570833333297</v>
       </c>
       <c r="P8">
-        <v>0.9999975812666766</v>
+        <v>0.9993296333333292</v>
       </c>
       <c r="Q8">
-        <v>0.9999975812666766</v>
+        <v>0.9993296333333292</v>
       </c>
       <c r="R8">
-        <v>0.9999990924570173</v>
+        <v>0.9997485999999955</v>
       </c>
       <c r="S8">
-        <v>0.9999990924570173</v>
+        <v>0.9997485999999955</v>
       </c>
       <c r="T8">
-        <v>0.9999996774427311</v>
+        <v>0.9999106083333299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000005003611292</v>
+        <v>1.001005499999997</v>
       </c>
       <c r="D9">
-        <v>0.9999799801512443</v>
+        <v>0.9959778999999984</v>
       </c>
       <c r="E9">
-        <v>0.9999799801512443</v>
+        <v>0.9959778999999984</v>
       </c>
       <c r="F9">
-        <v>1.000005003611292</v>
+        <v>1.001005499999997</v>
       </c>
       <c r="G9">
-        <v>1.000005003611292</v>
+        <v>1.001005499999997</v>
       </c>
       <c r="H9">
-        <v>1.000013347992601</v>
+        <v>1.002681400000001</v>
       </c>
       <c r="I9">
-        <v>0.9999889900544788</v>
+        <v>0.9977878500000029</v>
       </c>
       <c r="J9">
-        <v>1.000005003611292</v>
+        <v>1.001005499999997</v>
       </c>
       <c r="K9">
-        <v>1.000005003611292</v>
+        <v>1.001005499999997</v>
       </c>
       <c r="L9">
-        <v>1.000005003611292</v>
+        <v>1.001005499999997</v>
       </c>
       <c r="M9">
-        <v>0.9999924918812679</v>
+        <v>0.9984916999999979</v>
       </c>
       <c r="N9">
-        <v>0.9999924918812679</v>
+        <v>0.9984916999999979</v>
       </c>
       <c r="O9">
-        <v>0.9999913246056716</v>
+        <v>0.9982570833333329</v>
       </c>
       <c r="P9">
-        <v>0.9999966624579425</v>
+        <v>0.999329633333331</v>
       </c>
       <c r="Q9">
-        <v>0.9999966624579425</v>
+        <v>0.999329633333331</v>
       </c>
       <c r="R9">
-        <v>0.9999987477462797</v>
+        <v>0.9997485999999975</v>
       </c>
       <c r="S9">
-        <v>0.9999987477462797</v>
+        <v>0.9997485999999975</v>
       </c>
       <c r="T9">
-        <v>0.9999995548386997</v>
+        <v>0.9999106083333325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000010815964835</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="D10">
-        <v>0.9999567311207644</v>
+        <v>0.9959778999999988</v>
       </c>
       <c r="E10">
-        <v>0.9999567311207644</v>
+        <v>0.9959778999999988</v>
       </c>
       <c r="F10">
-        <v>1.000010815964835</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="G10">
-        <v>1.000010815964835</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="H10">
-        <v>1.00002884824147</v>
+        <v>1.002681400000001</v>
       </c>
       <c r="I10">
-        <v>0.9999762015583677</v>
+        <v>0.9977878500000016</v>
       </c>
       <c r="J10">
-        <v>1.000010815964835</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="K10">
-        <v>1.000010815964835</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="L10">
-        <v>1.000010815964835</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="M10">
-        <v>0.9999837735427997</v>
+        <v>0.9984916999999998</v>
       </c>
       <c r="N10">
-        <v>0.9999837735427997</v>
+        <v>0.9984916999999998</v>
       </c>
       <c r="O10">
-        <v>0.9999812495479891</v>
+        <v>0.9982570833333337</v>
       </c>
       <c r="P10">
-        <v>0.9999927876834781</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q10">
-        <v>0.9999927876834781</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R10">
-        <v>0.9999972947538173</v>
+        <v>0.9997486000000002</v>
       </c>
       <c r="S10">
-        <v>0.9999972947538173</v>
+        <v>0.9997486000000002</v>
       </c>
       <c r="T10">
-        <v>0.9999990381358511</v>
+        <v>0.9999106083333339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000018112632871</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="D11">
-        <v>0.999927540127946</v>
+        <v>0.9999142836180072</v>
       </c>
       <c r="E11">
-        <v>0.999927540127946</v>
+        <v>0.9999142836180072</v>
       </c>
       <c r="F11">
-        <v>1.000018112632871</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="G11">
-        <v>1.000018112632871</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="H11">
-        <v>1.000048307244884</v>
+        <v>1.000057146029671</v>
       </c>
       <c r="I11">
-        <v>0.9999601478627195</v>
+        <v>0.9999528563377134</v>
       </c>
       <c r="J11">
-        <v>1.000018112632871</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="K11">
-        <v>1.000018112632871</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="L11">
-        <v>1.000018112632871</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="M11">
-        <v>0.9999728263804086</v>
+        <v>0.999967855604915</v>
       </c>
       <c r="N11">
-        <v>0.9999728263804086</v>
+        <v>0.999967855604915</v>
       </c>
       <c r="O11">
-        <v>0.9999686002078456</v>
+        <v>0.9999628558491812</v>
       </c>
       <c r="P11">
-        <v>0.9999879217978961</v>
+        <v>0.9999857129338844</v>
       </c>
       <c r="Q11">
-        <v>0.9999879217978961</v>
+        <v>0.9999857129338844</v>
       </c>
       <c r="R11">
-        <v>0.9999954695066398</v>
+        <v>0.9999946415983689</v>
       </c>
       <c r="S11">
-        <v>0.9999954695066398</v>
+        <v>0.9999946415983689</v>
       </c>
       <c r="T11">
-        <v>0.9999983888556937</v>
+        <v>0.9999980947934767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9997438839930276</v>
+        <v>1.000013023012728</v>
       </c>
       <c r="D12">
-        <v>1.001024454427962</v>
+        <v>0.9999479034134663</v>
       </c>
       <c r="E12">
-        <v>1.001024454427962</v>
+        <v>0.9999479034134663</v>
       </c>
       <c r="F12">
-        <v>0.9997438839930276</v>
+        <v>1.000013023012728</v>
       </c>
       <c r="G12">
-        <v>0.9997438839930276</v>
+        <v>1.000013023012728</v>
       </c>
       <c r="H12">
-        <v>0.9993170335654566</v>
+        <v>1.000034732976982</v>
       </c>
       <c r="I12">
-        <v>1.000563447471753</v>
+        <v>0.9999713471411847</v>
       </c>
       <c r="J12">
-        <v>0.9997438839930276</v>
+        <v>1.000013023012728</v>
       </c>
       <c r="K12">
-        <v>0.9997438839930276</v>
+        <v>1.000013023012728</v>
       </c>
       <c r="L12">
-        <v>0.9997438839930276</v>
+        <v>1.000013023012728</v>
       </c>
       <c r="M12">
-        <v>1.000384169210495</v>
+        <v>0.9999804632130971</v>
       </c>
       <c r="N12">
-        <v>1.000384169210495</v>
+        <v>0.9999804632130971</v>
       </c>
       <c r="O12">
-        <v>1.000443928630914</v>
+        <v>0.9999774245224596</v>
       </c>
       <c r="P12">
-        <v>1.000170740804672</v>
+        <v>0.9999913164796407</v>
       </c>
       <c r="Q12">
-        <v>1.000170740804672</v>
+        <v>0.9999913164796407</v>
       </c>
       <c r="R12">
-        <v>1.000064026601761</v>
+        <v>0.9999967431129124</v>
       </c>
       <c r="S12">
-        <v>1.000064026601761</v>
+        <v>0.9999967431129124</v>
       </c>
       <c r="T12">
-        <v>1.000022764574042</v>
+        <v>0.9999988420949694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999335888361707</v>
+        <v>1.000043498137992</v>
       </c>
       <c r="D13">
-        <v>1.000265646361155</v>
+        <v>0.9998259909244166</v>
       </c>
       <c r="E13">
-        <v>1.000265646361155</v>
+        <v>0.9998259909244166</v>
       </c>
       <c r="F13">
-        <v>0.9999335888361707</v>
+        <v>1.000043498137992</v>
       </c>
       <c r="G13">
-        <v>0.9999335888361707</v>
+        <v>1.000043498137992</v>
       </c>
       <c r="H13">
-        <v>0.9998229023328564</v>
+        <v>1.000116011699631</v>
       </c>
       <c r="I13">
-        <v>1.000146100462313</v>
+        <v>0.9999043018739139</v>
       </c>
       <c r="J13">
-        <v>0.9999335888361707</v>
+        <v>1.000043498137992</v>
       </c>
       <c r="K13">
-        <v>0.9999335888361707</v>
+        <v>1.000043498137992</v>
       </c>
       <c r="L13">
-        <v>0.9999335888361707</v>
+        <v>1.000043498137992</v>
       </c>
       <c r="M13">
-        <v>1.000099617598663</v>
+        <v>0.9999347445312041</v>
       </c>
       <c r="N13">
-        <v>1.000099617598663</v>
+        <v>0.9999347445312041</v>
       </c>
       <c r="O13">
-        <v>1.000115111886546</v>
+        <v>0.999924596978774</v>
       </c>
       <c r="P13">
-        <v>1.000044274677832</v>
+        <v>0.9999709957334666</v>
       </c>
       <c r="Q13">
-        <v>1.000044274677832</v>
+        <v>0.9999709957334666</v>
       </c>
       <c r="R13">
-        <v>1.000016603217417</v>
+        <v>0.9999891213345979</v>
       </c>
       <c r="S13">
-        <v>1.000016603217417</v>
+        <v>0.9999891213345979</v>
       </c>
       <c r="T13">
-        <v>1.000005902610806</v>
+        <v>0.9999961331519893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9991987576358312</v>
+        <v>1.000045779966415</v>
       </c>
       <c r="D14">
-        <v>1.003204966717466</v>
+        <v>0.9998168677170394</v>
       </c>
       <c r="E14">
-        <v>1.003204966717466</v>
+        <v>0.9998168677170394</v>
       </c>
       <c r="F14">
-        <v>0.9991987576358312</v>
+        <v>1.000045779966415</v>
       </c>
       <c r="G14">
-        <v>0.9991987576358312</v>
+        <v>1.000045779966415</v>
       </c>
       <c r="H14">
-        <v>0.9978633559699731</v>
+        <v>1.000122086982871</v>
       </c>
       <c r="I14">
-        <v>1.001762729985097</v>
+        <v>0.9998992730063798</v>
       </c>
       <c r="J14">
-        <v>0.9991987576358312</v>
+        <v>1.000045779966415</v>
       </c>
       <c r="K14">
-        <v>0.9991987576358312</v>
+        <v>1.000045779966415</v>
       </c>
       <c r="L14">
-        <v>0.9991987576358312</v>
+        <v>1.000045779966415</v>
       </c>
       <c r="M14">
-        <v>1.001201862176649</v>
+        <v>0.999931323841727</v>
       </c>
       <c r="N14">
-        <v>1.001201862176649</v>
+        <v>0.999931323841727</v>
       </c>
       <c r="O14">
-        <v>1.001388818112798</v>
+        <v>0.9999206402299446</v>
       </c>
       <c r="P14">
-        <v>1.000534160663043</v>
+        <v>0.9999694758832897</v>
       </c>
       <c r="Q14">
-        <v>1.000534160663043</v>
+        <v>0.9999694758832897</v>
       </c>
       <c r="R14">
-        <v>1.00020030990624</v>
+        <v>0.9999885519040709</v>
       </c>
       <c r="S14">
-        <v>1.00020030990624</v>
+        <v>0.9999885519040709</v>
       </c>
       <c r="T14">
-        <v>1.000071220930005</v>
+        <v>0.9999959279342555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9997860993542457</v>
+        <v>1.0000163362728</v>
       </c>
       <c r="D15">
-        <v>1.000855599207405</v>
+        <v>0.9999346490392929</v>
       </c>
       <c r="E15">
-        <v>1.000855599207405</v>
+        <v>0.9999346490392929</v>
       </c>
       <c r="F15">
-        <v>0.9997860993542457</v>
+        <v>1.0000163362728</v>
       </c>
       <c r="G15">
-        <v>0.9997860993542457</v>
+        <v>1.0000163362728</v>
       </c>
       <c r="H15">
-        <v>0.9994296012504473</v>
+        <v>1.000043569499515</v>
       </c>
       <c r="I15">
-        <v>1.000470581567174</v>
+        <v>0.9999640569152335</v>
       </c>
       <c r="J15">
-        <v>0.9997860993542457</v>
+        <v>1.0000163362728</v>
       </c>
       <c r="K15">
-        <v>0.9997860993542457</v>
+        <v>1.0000163362728</v>
       </c>
       <c r="L15">
-        <v>0.9997860993542457</v>
+        <v>1.0000163362728</v>
       </c>
       <c r="M15">
-        <v>1.000320849280825</v>
+        <v>0.9999754926560466</v>
       </c>
       <c r="N15">
-        <v>1.000320849280825</v>
+        <v>0.9999754926560466</v>
       </c>
       <c r="O15">
-        <v>1.000370760042941</v>
+        <v>0.9999716807424422</v>
       </c>
       <c r="P15">
-        <v>1.000142599305299</v>
+        <v>0.9999891071949646</v>
       </c>
       <c r="Q15">
-        <v>1.000142599305299</v>
+        <v>0.9999891071949646</v>
       </c>
       <c r="R15">
-        <v>1.000053474317536</v>
+        <v>0.9999959144644235</v>
       </c>
       <c r="S15">
-        <v>1.000053474317536</v>
+        <v>0.9999959144644235</v>
       </c>
       <c r="T15">
-        <v>1.000019013347961</v>
+        <v>0.9999985473787406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00031872825791</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="D16">
-        <v>0.9987250763157386</v>
+        <v>0.9998738408886226</v>
       </c>
       <c r="E16">
-        <v>0.9987250763157386</v>
+        <v>0.9998738408886226</v>
       </c>
       <c r="F16">
-        <v>1.00031872825791</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="G16">
-        <v>1.00031872825791</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="H16">
-        <v>1.000849952768021</v>
+        <v>1.000084109098684</v>
       </c>
       <c r="I16">
-        <v>0.9992987855433498</v>
+        <v>0.9999306130915886</v>
       </c>
       <c r="J16">
-        <v>1.00031872825791</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="K16">
-        <v>1.00031872825791</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="L16">
-        <v>1.00031872825791</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="M16">
-        <v>0.999521902286824</v>
+        <v>0.999952688799393</v>
       </c>
       <c r="N16">
-        <v>0.999521902286824</v>
+        <v>0.999952688799393</v>
       </c>
       <c r="O16">
-        <v>0.9994475300389993</v>
+        <v>0.9999453302301249</v>
       </c>
       <c r="P16">
-        <v>0.9997875109438525</v>
+        <v>0.9999789714363164</v>
       </c>
       <c r="Q16">
-        <v>0.9997875109438525</v>
+        <v>0.9999789714363164</v>
       </c>
       <c r="R16">
-        <v>0.9999203152723668</v>
+        <v>0.9999921127547782</v>
       </c>
       <c r="S16">
-        <v>0.9999203152723668</v>
+        <v>0.9999921127547782</v>
       </c>
       <c r="T16">
-        <v>0.9999716665668062</v>
+        <v>0.9999971955348976</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000261008779481</v>
+        <v>1.000060439682944</v>
       </c>
       <c r="D17">
-        <v>0.9989559554504933</v>
+        <v>0.9997582316080438</v>
       </c>
       <c r="E17">
-        <v>0.9989559554504933</v>
+        <v>0.9997582316080438</v>
       </c>
       <c r="F17">
-        <v>1.000261008779481</v>
+        <v>1.000060439682944</v>
       </c>
       <c r="G17">
-        <v>1.000261008779481</v>
+        <v>1.000060439682944</v>
       </c>
       <c r="H17">
-        <v>1.00069603272891</v>
+        <v>1.00016118211385</v>
       </c>
       <c r="I17">
-        <v>0.9994257713507685</v>
+        <v>0.9998670247570285</v>
       </c>
       <c r="J17">
-        <v>1.000261008779481</v>
+        <v>1.000060439682944</v>
       </c>
       <c r="K17">
-        <v>1.000261008779481</v>
+        <v>1.000060439682944</v>
       </c>
       <c r="L17">
-        <v>1.000261008779481</v>
+        <v>1.000060439682944</v>
       </c>
       <c r="M17">
-        <v>0.9996084821149871</v>
+        <v>0.9999093356454941</v>
       </c>
       <c r="N17">
-        <v>0.9996084821149871</v>
+        <v>0.9999093356454941</v>
       </c>
       <c r="O17">
-        <v>0.9995475785269142</v>
+        <v>0.9998952320160056</v>
       </c>
       <c r="P17">
-        <v>0.9998259910031516</v>
+        <v>0.9999597036579776</v>
       </c>
       <c r="Q17">
-        <v>0.9998259910031516</v>
+        <v>0.9999597036579776</v>
       </c>
       <c r="R17">
-        <v>0.9999347454472339</v>
+        <v>0.9999848876642192</v>
       </c>
       <c r="S17">
-        <v>0.9999347454472339</v>
+        <v>0.9999848876642192</v>
       </c>
       <c r="T17">
-        <v>0.9999767976447691</v>
+        <v>0.999994626254626</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000145307064747</v>
+        <v>1.000088639335028</v>
       </c>
       <c r="D18">
-        <v>0.9994187594385935</v>
+        <v>0.9996454045253692</v>
       </c>
       <c r="E18">
-        <v>0.9994187594385935</v>
+        <v>0.9996454045253692</v>
       </c>
       <c r="F18">
-        <v>1.000145307064747</v>
+        <v>1.000088639335028</v>
       </c>
       <c r="G18">
-        <v>1.000145307064747</v>
+        <v>1.000088639335028</v>
       </c>
       <c r="H18">
-        <v>1.000387495859506</v>
+        <v>1.000236402954576</v>
       </c>
       <c r="I18">
-        <v>0.9996803219072163</v>
+        <v>0.9998049741674401</v>
       </c>
       <c r="J18">
-        <v>1.000145307064747</v>
+        <v>1.000088639335028</v>
       </c>
       <c r="K18">
-        <v>1.000145307064747</v>
+        <v>1.000088639335028</v>
       </c>
       <c r="L18">
-        <v>1.000145307064747</v>
+        <v>1.000088639335028</v>
       </c>
       <c r="M18">
-        <v>0.9997820332516703</v>
+        <v>0.9998670219301988</v>
       </c>
       <c r="N18">
-        <v>0.9997820332516703</v>
+        <v>0.9998670219301988</v>
       </c>
       <c r="O18">
-        <v>0.9997481294701857</v>
+        <v>0.9998463393426126</v>
       </c>
       <c r="P18">
-        <v>0.9999031245226959</v>
+        <v>0.9999408943984753</v>
       </c>
       <c r="Q18">
-        <v>0.9999031245226959</v>
+        <v>0.9999408943984753</v>
       </c>
       <c r="R18">
-        <v>0.9999636701582086</v>
+        <v>0.9999778306326136</v>
       </c>
       <c r="S18">
-        <v>0.9999636701582086</v>
+        <v>0.9999778306326136</v>
       </c>
       <c r="T18">
-        <v>0.9999870830665927</v>
+        <v>0.9999921166087451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000161939142866</v>
+        <v>1.000001250579469</v>
       </c>
       <c r="D19">
-        <v>0.9993522241994848</v>
+        <v>0.9999949936378894</v>
       </c>
       <c r="E19">
-        <v>0.9993522241994848</v>
+        <v>0.9999949936378894</v>
       </c>
       <c r="F19">
-        <v>1.000161939142866</v>
+        <v>1.000001250579469</v>
       </c>
       <c r="G19">
-        <v>1.000161939142866</v>
+        <v>1.000001250579469</v>
       </c>
       <c r="H19">
-        <v>1.00043184956043</v>
+        <v>1.000003339469771</v>
       </c>
       <c r="I19">
-        <v>0.9996437211412574</v>
+        <v>0.9999972469212345</v>
       </c>
       <c r="J19">
-        <v>1.000161939142866</v>
+        <v>1.000001250579469</v>
       </c>
       <c r="K19">
-        <v>1.000161939142866</v>
+        <v>1.000001250579469</v>
       </c>
       <c r="L19">
-        <v>1.000161939142866</v>
+        <v>1.000001250579469</v>
       </c>
       <c r="M19">
-        <v>0.9997570816711752</v>
+        <v>0.999998122108679</v>
       </c>
       <c r="N19">
-        <v>0.9997570816711752</v>
+        <v>0.999998122108679</v>
       </c>
       <c r="O19">
-        <v>0.9997192948278691</v>
+        <v>0.9999978303795308</v>
       </c>
       <c r="P19">
-        <v>0.9998920341617387</v>
+        <v>0.9999991649322756</v>
       </c>
       <c r="Q19">
-        <v>0.9998920341617387</v>
+        <v>0.9999991649322756</v>
       </c>
       <c r="R19">
-        <v>0.9999595104070204</v>
+        <v>0.9999996863440739</v>
       </c>
       <c r="S19">
-        <v>0.9999595104070204</v>
+        <v>0.9999996863440739</v>
       </c>
       <c r="T19">
-        <v>0.9999856020549615</v>
+        <v>0.9999998886278835</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000066395113</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="D20">
-        <v>0.9999997301884272</v>
+        <v>0.9999854917439506</v>
       </c>
       <c r="E20">
-        <v>0.9999997301884272</v>
+        <v>0.9999854917439506</v>
       </c>
       <c r="F20">
-        <v>1.000000066395113</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="G20">
-        <v>1.000000066395113</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="H20">
-        <v>1.000000181735696</v>
+        <v>1.00000967402313</v>
       </c>
       <c r="I20">
-        <v>0.9999998520140821</v>
+        <v>0.9999920208051866</v>
       </c>
       <c r="J20">
-        <v>1.000000066395113</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="K20">
-        <v>1.000000066395113</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="L20">
-        <v>1.000000066395113</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="M20">
-        <v>0.9999998982917702</v>
+        <v>0.9999945588859951</v>
       </c>
       <c r="N20">
-        <v>0.9999998982917702</v>
+        <v>0.9999945588859951</v>
       </c>
       <c r="O20">
-        <v>0.9999998828658742</v>
+        <v>0.9999937128590589</v>
       </c>
       <c r="P20">
-        <v>0.9999999543262179</v>
+        <v>0.9999975812666766</v>
       </c>
       <c r="Q20">
-        <v>0.9999999543262179</v>
+        <v>0.9999975812666766</v>
       </c>
       <c r="R20">
-        <v>0.9999999823434418</v>
+        <v>0.9999990924570173</v>
       </c>
       <c r="S20">
-        <v>0.9999999823434418</v>
+        <v>0.9999990924570173</v>
       </c>
       <c r="T20">
-        <v>0.9999999938539242</v>
+        <v>0.9999996774427311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000001427602111</v>
+        <v>1.000005003611292</v>
       </c>
       <c r="D21">
-        <v>0.9999942847460145</v>
+        <v>0.9999799801512443</v>
       </c>
       <c r="E21">
-        <v>0.9999942847460145</v>
+        <v>0.9999799801512443</v>
       </c>
       <c r="F21">
-        <v>1.000001427602111</v>
+        <v>1.000005003611292</v>
       </c>
       <c r="G21">
-        <v>1.000001427602111</v>
+        <v>1.000005003611292</v>
       </c>
       <c r="H21">
-        <v>1.00000381159924</v>
+        <v>1.000013347992601</v>
       </c>
       <c r="I21">
-        <v>0.9999968574399551</v>
+        <v>0.9999889900544788</v>
       </c>
       <c r="J21">
-        <v>1.000001427602111</v>
+        <v>1.000005003611292</v>
       </c>
       <c r="K21">
-        <v>1.000001427602111</v>
+        <v>1.000005003611292</v>
       </c>
       <c r="L21">
-        <v>1.000001427602111</v>
+        <v>1.000005003611292</v>
       </c>
       <c r="M21">
-        <v>0.9999978561740628</v>
+        <v>0.9999924918812679</v>
       </c>
       <c r="N21">
-        <v>0.9999978561740628</v>
+        <v>0.9999924918812679</v>
       </c>
       <c r="O21">
-        <v>0.9999975232626935</v>
+        <v>0.9999913246056716</v>
       </c>
       <c r="P21">
-        <v>0.9999990466500789</v>
+        <v>0.9999966624579425</v>
       </c>
       <c r="Q21">
-        <v>0.9999990466500789</v>
+        <v>0.9999966624579425</v>
       </c>
       <c r="R21">
-        <v>0.999999641888087</v>
+        <v>0.9999987477462797</v>
       </c>
       <c r="S21">
-        <v>0.999999641888087</v>
+        <v>0.9999987477462797</v>
       </c>
       <c r="T21">
-        <v>0.9999998727652571</v>
+        <v>0.9999995548386997</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000005028184289</v>
+        <v>1.000010815964835</v>
       </c>
       <c r="D22">
-        <v>0.9999798780408458</v>
+        <v>0.9999567311207644</v>
       </c>
       <c r="E22">
-        <v>0.9999798780408458</v>
+        <v>0.9999567311207644</v>
       </c>
       <c r="F22">
-        <v>1.000005028184289</v>
+        <v>1.000010815964835</v>
       </c>
       <c r="G22">
-        <v>1.000005028184289</v>
+        <v>1.000010815964835</v>
       </c>
       <c r="H22">
-        <v>1.000013414182644</v>
+        <v>1.00002884824147</v>
       </c>
       <c r="I22">
-        <v>0.9999889301065364</v>
+        <v>0.9999762015583677</v>
       </c>
       <c r="J22">
-        <v>1.000005028184289</v>
+        <v>1.000010815964835</v>
       </c>
       <c r="K22">
-        <v>1.000005028184289</v>
+        <v>1.000010815964835</v>
       </c>
       <c r="L22">
-        <v>1.000005028184289</v>
+        <v>1.000010815964835</v>
       </c>
       <c r="M22">
-        <v>0.9999924531125672</v>
+        <v>0.9999837735427997</v>
       </c>
       <c r="N22">
-        <v>0.9999924531125672</v>
+        <v>0.9999837735427997</v>
       </c>
       <c r="O22">
-        <v>0.9999912787772236</v>
+        <v>0.9999812495479891</v>
       </c>
       <c r="P22">
-        <v>0.999996644803141</v>
+        <v>0.9999927876834781</v>
       </c>
       <c r="Q22">
-        <v>0.999996644803141</v>
+        <v>0.9999927876834781</v>
       </c>
       <c r="R22">
-        <v>0.9999987406484279</v>
+        <v>0.9999972947538173</v>
       </c>
       <c r="S22">
-        <v>0.9999987406484279</v>
+        <v>0.9999972947538173</v>
       </c>
       <c r="T22">
-        <v>0.9999995511471486</v>
+        <v>0.9999990381358511</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000018112632871</v>
+      </c>
+      <c r="D23">
+        <v>0.999927540127946</v>
+      </c>
+      <c r="E23">
+        <v>0.999927540127946</v>
+      </c>
+      <c r="F23">
+        <v>1.000018112632871</v>
+      </c>
+      <c r="G23">
+        <v>1.000018112632871</v>
+      </c>
+      <c r="H23">
+        <v>1.000048307244884</v>
+      </c>
+      <c r="I23">
+        <v>0.9999601478627195</v>
+      </c>
+      <c r="J23">
+        <v>1.000018112632871</v>
+      </c>
+      <c r="K23">
+        <v>1.000018112632871</v>
+      </c>
+      <c r="L23">
+        <v>1.000018112632871</v>
+      </c>
+      <c r="M23">
+        <v>0.9999728263804086</v>
+      </c>
+      <c r="N23">
+        <v>0.9999728263804086</v>
+      </c>
+      <c r="O23">
+        <v>0.9999686002078456</v>
+      </c>
+      <c r="P23">
+        <v>0.9999879217978961</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999879217978961</v>
+      </c>
+      <c r="R23">
+        <v>0.9999954695066398</v>
+      </c>
+      <c r="S23">
+        <v>0.9999954695066398</v>
+      </c>
+      <c r="T23">
+        <v>0.9999983888556937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="D24">
+        <v>1.001024454427962</v>
+      </c>
+      <c r="E24">
+        <v>1.001024454427962</v>
+      </c>
+      <c r="F24">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="G24">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="H24">
+        <v>0.9993170335654566</v>
+      </c>
+      <c r="I24">
+        <v>1.000563447471753</v>
+      </c>
+      <c r="J24">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="K24">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="L24">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="M24">
+        <v>1.000384169210495</v>
+      </c>
+      <c r="N24">
+        <v>1.000384169210495</v>
+      </c>
+      <c r="O24">
+        <v>1.000443928630914</v>
+      </c>
+      <c r="P24">
+        <v>1.000170740804672</v>
+      </c>
+      <c r="Q24">
+        <v>1.000170740804672</v>
+      </c>
+      <c r="R24">
+        <v>1.000064026601761</v>
+      </c>
+      <c r="S24">
+        <v>1.000064026601761</v>
+      </c>
+      <c r="T24">
+        <v>1.000022764574042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="D25">
+        <v>1.000265646361155</v>
+      </c>
+      <c r="E25">
+        <v>1.000265646361155</v>
+      </c>
+      <c r="F25">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="G25">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="H25">
+        <v>0.9998229023328564</v>
+      </c>
+      <c r="I25">
+        <v>1.000146100462313</v>
+      </c>
+      <c r="J25">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="K25">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="L25">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="M25">
+        <v>1.000099617598663</v>
+      </c>
+      <c r="N25">
+        <v>1.000099617598663</v>
+      </c>
+      <c r="O25">
+        <v>1.000115111886546</v>
+      </c>
+      <c r="P25">
+        <v>1.000044274677832</v>
+      </c>
+      <c r="Q25">
+        <v>1.000044274677832</v>
+      </c>
+      <c r="R25">
+        <v>1.000016603217417</v>
+      </c>
+      <c r="S25">
+        <v>1.000016603217417</v>
+      </c>
+      <c r="T25">
+        <v>1.000005902610806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="D26">
+        <v>1.003204966717466</v>
+      </c>
+      <c r="E26">
+        <v>1.003204966717466</v>
+      </c>
+      <c r="F26">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="G26">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="H26">
+        <v>0.9978633559699731</v>
+      </c>
+      <c r="I26">
+        <v>1.001762729985097</v>
+      </c>
+      <c r="J26">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="K26">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="L26">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="M26">
+        <v>1.001201862176649</v>
+      </c>
+      <c r="N26">
+        <v>1.001201862176649</v>
+      </c>
+      <c r="O26">
+        <v>1.001388818112798</v>
+      </c>
+      <c r="P26">
+        <v>1.000534160663043</v>
+      </c>
+      <c r="Q26">
+        <v>1.000534160663043</v>
+      </c>
+      <c r="R26">
+        <v>1.00020030990624</v>
+      </c>
+      <c r="S26">
+        <v>1.00020030990624</v>
+      </c>
+      <c r="T26">
+        <v>1.000071220930005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="D27">
+        <v>1.000855599207405</v>
+      </c>
+      <c r="E27">
+        <v>1.000855599207405</v>
+      </c>
+      <c r="F27">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="G27">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="H27">
+        <v>0.9994296012504473</v>
+      </c>
+      <c r="I27">
+        <v>1.000470581567174</v>
+      </c>
+      <c r="J27">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="K27">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="L27">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="M27">
+        <v>1.000320849280825</v>
+      </c>
+      <c r="N27">
+        <v>1.000320849280825</v>
+      </c>
+      <c r="O27">
+        <v>1.000370760042941</v>
+      </c>
+      <c r="P27">
+        <v>1.000142599305299</v>
+      </c>
+      <c r="Q27">
+        <v>1.000142599305299</v>
+      </c>
+      <c r="R27">
+        <v>1.000053474317536</v>
+      </c>
+      <c r="S27">
+        <v>1.000053474317536</v>
+      </c>
+      <c r="T27">
+        <v>1.000019013347961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.00031872825791</v>
+      </c>
+      <c r="D28">
+        <v>0.9987250763157386</v>
+      </c>
+      <c r="E28">
+        <v>0.9987250763157386</v>
+      </c>
+      <c r="F28">
+        <v>1.00031872825791</v>
+      </c>
+      <c r="G28">
+        <v>1.00031872825791</v>
+      </c>
+      <c r="H28">
+        <v>1.000849952768021</v>
+      </c>
+      <c r="I28">
+        <v>0.9992987855433498</v>
+      </c>
+      <c r="J28">
+        <v>1.00031872825791</v>
+      </c>
+      <c r="K28">
+        <v>1.00031872825791</v>
+      </c>
+      <c r="L28">
+        <v>1.00031872825791</v>
+      </c>
+      <c r="M28">
+        <v>0.999521902286824</v>
+      </c>
+      <c r="N28">
+        <v>0.999521902286824</v>
+      </c>
+      <c r="O28">
+        <v>0.9994475300389993</v>
+      </c>
+      <c r="P28">
+        <v>0.9997875109438525</v>
+      </c>
+      <c r="Q28">
+        <v>0.9997875109438525</v>
+      </c>
+      <c r="R28">
+        <v>0.9999203152723668</v>
+      </c>
+      <c r="S28">
+        <v>0.9999203152723668</v>
+      </c>
+      <c r="T28">
+        <v>0.9999716665668062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000261008779481</v>
+      </c>
+      <c r="D29">
+        <v>0.9989559554504933</v>
+      </c>
+      <c r="E29">
+        <v>0.9989559554504933</v>
+      </c>
+      <c r="F29">
+        <v>1.000261008779481</v>
+      </c>
+      <c r="G29">
+        <v>1.000261008779481</v>
+      </c>
+      <c r="H29">
+        <v>1.00069603272891</v>
+      </c>
+      <c r="I29">
+        <v>0.9994257713507685</v>
+      </c>
+      <c r="J29">
+        <v>1.000261008779481</v>
+      </c>
+      <c r="K29">
+        <v>1.000261008779481</v>
+      </c>
+      <c r="L29">
+        <v>1.000261008779481</v>
+      </c>
+      <c r="M29">
+        <v>0.9996084821149871</v>
+      </c>
+      <c r="N29">
+        <v>0.9996084821149871</v>
+      </c>
+      <c r="O29">
+        <v>0.9995475785269142</v>
+      </c>
+      <c r="P29">
+        <v>0.9998259910031516</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998259910031516</v>
+      </c>
+      <c r="R29">
+        <v>0.9999347454472339</v>
+      </c>
+      <c r="S29">
+        <v>0.9999347454472339</v>
+      </c>
+      <c r="T29">
+        <v>0.9999767976447691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000145307064747</v>
+      </c>
+      <c r="D30">
+        <v>0.9994187594385935</v>
+      </c>
+      <c r="E30">
+        <v>0.9994187594385935</v>
+      </c>
+      <c r="F30">
+        <v>1.000145307064747</v>
+      </c>
+      <c r="G30">
+        <v>1.000145307064747</v>
+      </c>
+      <c r="H30">
+        <v>1.000387495859506</v>
+      </c>
+      <c r="I30">
+        <v>0.9996803219072163</v>
+      </c>
+      <c r="J30">
+        <v>1.000145307064747</v>
+      </c>
+      <c r="K30">
+        <v>1.000145307064747</v>
+      </c>
+      <c r="L30">
+        <v>1.000145307064747</v>
+      </c>
+      <c r="M30">
+        <v>0.9997820332516703</v>
+      </c>
+      <c r="N30">
+        <v>0.9997820332516703</v>
+      </c>
+      <c r="O30">
+        <v>0.9997481294701857</v>
+      </c>
+      <c r="P30">
+        <v>0.9999031245226959</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999031245226959</v>
+      </c>
+      <c r="R30">
+        <v>0.9999636701582086</v>
+      </c>
+      <c r="S30">
+        <v>0.9999636701582086</v>
+      </c>
+      <c r="T30">
+        <v>0.9999870830665927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="D31">
+        <v>0.9993522241994848</v>
+      </c>
+      <c r="E31">
+        <v>0.9993522241994848</v>
+      </c>
+      <c r="F31">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="G31">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="H31">
+        <v>1.00043184956043</v>
+      </c>
+      <c r="I31">
+        <v>0.9996437211412574</v>
+      </c>
+      <c r="J31">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="K31">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="L31">
+        <v>1.000161939142866</v>
+      </c>
+      <c r="M31">
+        <v>0.9997570816711752</v>
+      </c>
+      <c r="N31">
+        <v>0.9997570816711752</v>
+      </c>
+      <c r="O31">
+        <v>0.9997192948278691</v>
+      </c>
+      <c r="P31">
+        <v>0.9998920341617387</v>
+      </c>
+      <c r="Q31">
+        <v>0.9998920341617387</v>
+      </c>
+      <c r="R31">
+        <v>0.9999595104070204</v>
+      </c>
+      <c r="S31">
+        <v>0.9999595104070204</v>
+      </c>
+      <c r="T31">
+        <v>0.9999856020549615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.000385675342466</v>
+      </c>
+      <c r="D32">
+        <v>0.9984572854794522</v>
+      </c>
+      <c r="E32">
+        <v>0.9984572854794522</v>
+      </c>
+      <c r="F32">
+        <v>1.000385675342466</v>
+      </c>
+      <c r="G32">
+        <v>1.000385675342466</v>
+      </c>
+      <c r="H32">
+        <v>1.001028480547945</v>
+      </c>
+      <c r="I32">
+        <v>0.9991514984931507</v>
+      </c>
+      <c r="J32">
+        <v>1.000385675342466</v>
+      </c>
+      <c r="K32">
+        <v>1.000385675342466</v>
+      </c>
+      <c r="L32">
+        <v>1.000385675342466</v>
+      </c>
+      <c r="M32">
+        <v>0.999421480410959</v>
+      </c>
+      <c r="N32">
+        <v>0.999421480410959</v>
+      </c>
+      <c r="O32">
+        <v>0.9993314864383563</v>
+      </c>
+      <c r="P32">
+        <v>0.9997428787214613</v>
+      </c>
+      <c r="Q32">
+        <v>0.9997428787214613</v>
+      </c>
+      <c r="R32">
+        <v>0.9999035778767125</v>
+      </c>
+      <c r="S32">
+        <v>0.9999035778767125</v>
+      </c>
+      <c r="T32">
+        <v>0.9999657150913244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000454244736842</v>
+      </c>
+      <c r="D33">
+        <v>0.9981830073684212</v>
+      </c>
+      <c r="E33">
+        <v>0.9981830073684212</v>
+      </c>
+      <c r="F33">
+        <v>1.000454244736842</v>
+      </c>
+      <c r="G33">
+        <v>1.000454244736842</v>
+      </c>
+      <c r="H33">
+        <v>1.001211332631579</v>
+      </c>
+      <c r="I33">
+        <v>0.9990006457894739</v>
+      </c>
+      <c r="J33">
+        <v>1.000454244736842</v>
+      </c>
+      <c r="K33">
+        <v>1.000454244736842</v>
+      </c>
+      <c r="L33">
+        <v>1.000454244736842</v>
+      </c>
+      <c r="M33">
+        <v>0.9993186260526317</v>
+      </c>
+      <c r="N33">
+        <v>0.9993186260526317</v>
+      </c>
+      <c r="O33">
+        <v>0.9992126326315791</v>
+      </c>
+      <c r="P33">
+        <v>0.9996971656140351</v>
+      </c>
+      <c r="Q33">
+        <v>0.9996971656140351</v>
+      </c>
+      <c r="R33">
+        <v>0.9998864353947368</v>
+      </c>
+      <c r="S33">
+        <v>0.9998864353947368</v>
+      </c>
+      <c r="T33">
+        <v>0.9999596199999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.0010055</v>
+      </c>
+      <c r="D34">
+        <v>0.9959779000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.9959779000000002</v>
+      </c>
+      <c r="F34">
+        <v>1.0010055</v>
+      </c>
+      <c r="G34">
+        <v>1.0010055</v>
+      </c>
+      <c r="H34">
+        <v>1.0026814</v>
+      </c>
+      <c r="I34">
+        <v>0.9977878499999998</v>
+      </c>
+      <c r="J34">
+        <v>1.0010055</v>
+      </c>
+      <c r="K34">
+        <v>1.0010055</v>
+      </c>
+      <c r="L34">
+        <v>1.0010055</v>
+      </c>
+      <c r="M34">
+        <v>0.9984917000000003</v>
+      </c>
+      <c r="N34">
+        <v>0.9984917000000003</v>
+      </c>
+      <c r="O34">
+        <v>0.9982570833333334</v>
+      </c>
+      <c r="P34">
+        <v>0.9993296333333337</v>
+      </c>
+      <c r="Q34">
+        <v>0.9993296333333337</v>
+      </c>
+      <c r="R34">
+        <v>0.9997486000000004</v>
+      </c>
+      <c r="S34">
+        <v>0.9997486000000004</v>
+      </c>
+      <c r="T34">
+        <v>0.9999106083333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.000573467538503</v>
+      </c>
+      <c r="D35">
+        <v>0.9977060759030035</v>
+      </c>
+      <c r="E35">
+        <v>0.9977060759030035</v>
+      </c>
+      <c r="F35">
+        <v>1.000573467538503</v>
+      </c>
+      <c r="G35">
+        <v>1.000573467538503</v>
+      </c>
+      <c r="H35">
+        <v>1.001529283599747</v>
+      </c>
+      <c r="I35">
+        <v>0.9987383444586185</v>
+      </c>
+      <c r="J35">
+        <v>1.000573467538503</v>
+      </c>
+      <c r="K35">
+        <v>1.000573467538503</v>
+      </c>
+      <c r="L35">
+        <v>1.000573467538503</v>
+      </c>
+      <c r="M35">
+        <v>0.9991397717207533</v>
+      </c>
+      <c r="N35">
+        <v>0.9991397717207533</v>
+      </c>
+      <c r="O35">
+        <v>0.999005962633375</v>
+      </c>
+      <c r="P35">
+        <v>0.9996176703266699</v>
+      </c>
+      <c r="Q35">
+        <v>0.9996176703266699</v>
+      </c>
+      <c r="R35">
+        <v>0.9998566196296282</v>
+      </c>
+      <c r="S35">
+        <v>0.9998566196296282</v>
+      </c>
+      <c r="T35">
+        <v>0.9999490177628131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="D36">
+        <v>0.9999997301884272</v>
+      </c>
+      <c r="E36">
+        <v>0.9999997301884272</v>
+      </c>
+      <c r="F36">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="G36">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="H36">
+        <v>1.000000181735696</v>
+      </c>
+      <c r="I36">
+        <v>0.9999998520140821</v>
+      </c>
+      <c r="J36">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="K36">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="L36">
+        <v>1.000000066395113</v>
+      </c>
+      <c r="M36">
+        <v>0.9999998982917702</v>
+      </c>
+      <c r="N36">
+        <v>0.9999998982917702</v>
+      </c>
+      <c r="O36">
+        <v>0.9999998828658742</v>
+      </c>
+      <c r="P36">
+        <v>0.9999999543262179</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999999543262179</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999823434418</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999823434418</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999938539242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="D37">
+        <v>0.9999942847460145</v>
+      </c>
+      <c r="E37">
+        <v>0.9999942847460145</v>
+      </c>
+      <c r="F37">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="G37">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="H37">
+        <v>1.00000381159924</v>
+      </c>
+      <c r="I37">
+        <v>0.9999968574399551</v>
+      </c>
+      <c r="J37">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="K37">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="L37">
+        <v>1.000001427602111</v>
+      </c>
+      <c r="M37">
+        <v>0.9999978561740628</v>
+      </c>
+      <c r="N37">
+        <v>0.9999978561740628</v>
+      </c>
+      <c r="O37">
+        <v>0.9999975232626935</v>
+      </c>
+      <c r="P37">
+        <v>0.9999990466500789</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999990466500789</v>
+      </c>
+      <c r="R37">
+        <v>0.999999641888087</v>
+      </c>
+      <c r="S37">
+        <v>0.999999641888087</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998727652571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="D38">
+        <v>0.9999798780408458</v>
+      </c>
+      <c r="E38">
+        <v>0.9999798780408458</v>
+      </c>
+      <c r="F38">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="G38">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="H38">
+        <v>1.000013414182644</v>
+      </c>
+      <c r="I38">
+        <v>0.9999889301065364</v>
+      </c>
+      <c r="J38">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="K38">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="L38">
+        <v>1.000005028184289</v>
+      </c>
+      <c r="M38">
+        <v>0.9999924531125672</v>
+      </c>
+      <c r="N38">
+        <v>0.9999924531125672</v>
+      </c>
+      <c r="O38">
+        <v>0.9999912787772236</v>
+      </c>
+      <c r="P38">
+        <v>0.999996644803141</v>
+      </c>
+      <c r="Q38">
+        <v>0.999996644803141</v>
+      </c>
+      <c r="R38">
+        <v>0.9999987406484279</v>
+      </c>
+      <c r="S38">
+        <v>0.9999987406484279</v>
+      </c>
+      <c r="T38">
+        <v>0.9999995511471486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000011783238443</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.999952863674296</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.999952863674296</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000011783238443</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000011783238443</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00003142674451</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999740766238689</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000011783238443</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000011783238443</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000011783238443</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999823234563693</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999823234563693</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999795745122025</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999992143383727</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.999992143383727</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999970533474059</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999970533474059</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999989527930003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00036365728813</v>
+      </c>
+      <c r="D40">
+        <v>0.9985453661887308</v>
+      </c>
+      <c r="E40">
+        <v>0.9985453661887308</v>
+      </c>
+      <c r="F40">
+        <v>1.00036365728813</v>
+      </c>
+      <c r="G40">
+        <v>1.00036365728813</v>
+      </c>
+      <c r="H40">
+        <v>1.000969758814892</v>
+      </c>
+      <c r="I40">
+        <v>0.9991999517167014</v>
+      </c>
+      <c r="J40">
+        <v>1.00036365728813</v>
+      </c>
+      <c r="K40">
+        <v>1.00036365728813</v>
+      </c>
+      <c r="L40">
+        <v>1.00036365728813</v>
+      </c>
+      <c r="M40">
+        <v>0.9994545117384301</v>
+      </c>
+      <c r="N40">
+        <v>0.9994545117384301</v>
+      </c>
+      <c r="O40">
+        <v>0.9993696583978539</v>
+      </c>
+      <c r="P40">
+        <v>0.9997575602549965</v>
+      </c>
+      <c r="Q40">
+        <v>0.9997575602549965</v>
+      </c>
+      <c r="R40">
+        <v>0.9999090845132799</v>
+      </c>
+      <c r="S40">
+        <v>0.9999090845132799</v>
+      </c>
+      <c r="T40">
+        <v>0.999967674764119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999964954810845</v>
+      </c>
+      <c r="D41">
+        <v>1.000014012721305</v>
+      </c>
+      <c r="E41">
+        <v>1.000014012721305</v>
+      </c>
+      <c r="F41">
+        <v>0.9999964954810845</v>
+      </c>
+      <c r="G41">
+        <v>0.9999964954810845</v>
+      </c>
+      <c r="H41">
+        <v>0.9999906598176368</v>
+      </c>
+      <c r="I41">
+        <v>1.000007707704629</v>
+      </c>
+      <c r="J41">
+        <v>0.9999964954810845</v>
+      </c>
+      <c r="K41">
+        <v>0.9999964954810845</v>
+      </c>
+      <c r="L41">
+        <v>0.9999964954810845</v>
+      </c>
+      <c r="M41">
+        <v>1.000005254101195</v>
+      </c>
+      <c r="N41">
+        <v>1.000005254101195</v>
+      </c>
+      <c r="O41">
+        <v>1.000006071969006</v>
+      </c>
+      <c r="P41">
+        <v>1.000002334561158</v>
+      </c>
+      <c r="Q41">
+        <v>1.000002334561158</v>
+      </c>
+      <c r="R41">
+        <v>1.00000087479114</v>
+      </c>
+      <c r="S41">
+        <v>1.00000087479114</v>
+      </c>
+      <c r="T41">
+        <v>1.00000031111447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000363824610012</v>
+      </c>
+      <c r="D42">
+        <v>0.998544690687277</v>
+      </c>
+      <c r="E42">
+        <v>0.998544690687277</v>
+      </c>
+      <c r="F42">
+        <v>1.000363824610012</v>
+      </c>
+      <c r="G42">
+        <v>1.000363824610012</v>
+      </c>
+      <c r="H42">
+        <v>1.000970208674627</v>
+      </c>
+      <c r="I42">
+        <v>0.9991995797708459</v>
+      </c>
+      <c r="J42">
+        <v>1.000363824610012</v>
+      </c>
+      <c r="K42">
+        <v>1.000363824610012</v>
+      </c>
+      <c r="L42">
+        <v>1.000363824610012</v>
+      </c>
+      <c r="M42">
+        <v>0.9994542576486445</v>
+      </c>
+      <c r="N42">
+        <v>0.9994542576486445</v>
+      </c>
+      <c r="O42">
+        <v>0.9993693650227117</v>
+      </c>
+      <c r="P42">
+        <v>0.9997574466357669</v>
+      </c>
+      <c r="Q42">
+        <v>0.9997574466357669</v>
+      </c>
+      <c r="R42">
+        <v>0.9999090411293282</v>
+      </c>
+      <c r="S42">
+        <v>0.9999090411293282</v>
+      </c>
+      <c r="T42">
+        <v>0.999967658827131</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0000163362728</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="D3">
-        <v>0.9999346490392929</v>
+        <v>0.9999854917439506</v>
       </c>
       <c r="E3">
-        <v>1.0000163362728</v>
+        <v>0.9999854917439506</v>
       </c>
       <c r="F3">
-        <v>1.0000163362728</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="G3">
-        <v>1.000043569499515</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="H3">
-        <v>0.9999640569152335</v>
+        <v>1.00000967402313</v>
       </c>
       <c r="I3">
-        <v>1.0000163362728</v>
+        <v>0.9999920208051866</v>
       </c>
       <c r="J3">
-        <v>0.9999346490392929</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="K3">
-        <v>1.0000163362728</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="L3">
-        <v>1.0000163362728</v>
+        <v>1.00000362602804</v>
       </c>
       <c r="M3">
-        <v>0.9999754926560466</v>
+        <v>0.9999945588859951</v>
       </c>
       <c r="N3">
-        <v>0.9999754926560466</v>
+        <v>0.9999945588859951</v>
       </c>
       <c r="O3">
-        <v>0.9999716807424422</v>
+        <v>0.9999937128590589</v>
       </c>
       <c r="P3">
-        <v>0.9999891071949646</v>
+        <v>0.9999975812666766</v>
       </c>
       <c r="Q3">
-        <v>0.9999891071949646</v>
+        <v>0.9999975812666766</v>
       </c>
       <c r="R3">
-        <v>0.9999959144644235</v>
+        <v>0.9999990924570173</v>
       </c>
       <c r="S3">
-        <v>0.9999959144644235</v>
+        <v>0.9999990924570173</v>
       </c>
       <c r="T3">
-        <v>0.9999985473787406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999996774427311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000031536710164</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="D4">
-        <v>0.9998738408886226</v>
+        <v>0.9985453661887308</v>
       </c>
       <c r="E4">
-        <v>1.000031536710164</v>
+        <v>0.9985453661887308</v>
       </c>
       <c r="F4">
-        <v>1.000031536710164</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="G4">
-        <v>1.000084109098684</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="H4">
-        <v>0.9999306130915886</v>
+        <v>1.000969758814892</v>
       </c>
       <c r="I4">
-        <v>1.000031536710164</v>
+        <v>0.9991999517167014</v>
       </c>
       <c r="J4">
-        <v>0.9998738408886226</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="K4">
-        <v>1.000031536710164</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="L4">
-        <v>1.000031536710164</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="M4">
-        <v>0.999952688799393</v>
+        <v>0.9994545117384301</v>
       </c>
       <c r="N4">
-        <v>0.999952688799393</v>
+        <v>0.9994545117384301</v>
       </c>
       <c r="O4">
-        <v>0.9999453302301249</v>
+        <v>0.9993696583978539</v>
       </c>
       <c r="P4">
-        <v>0.9999789714363164</v>
+        <v>0.9997575602549965</v>
       </c>
       <c r="Q4">
-        <v>0.9999789714363164</v>
+        <v>0.9997575602549965</v>
       </c>
       <c r="R4">
-        <v>0.9999921127547782</v>
+        <v>0.9999090845132799</v>
       </c>
       <c r="S4">
-        <v>0.9999921127547782</v>
+        <v>0.9999090845132799</v>
       </c>
       <c r="T4">
-        <v>0.9999971955348976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.999967674764119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000060439682944</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="D5">
-        <v>0.9997582316080441</v>
+        <v>0.9992704877521609</v>
       </c>
       <c r="E5">
-        <v>1.000060439682944</v>
+        <v>0.9992704877521609</v>
       </c>
       <c r="F5">
-        <v>1.000060439682944</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="G5">
-        <v>1.00016118211385</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="H5">
-        <v>0.9998670247570285</v>
+        <v>1.000486343285302</v>
       </c>
       <c r="I5">
-        <v>1.000060439682944</v>
+        <v>0.9995987686455363</v>
       </c>
       <c r="J5">
-        <v>0.9997582316080441</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="K5">
-        <v>1.000060439682944</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="L5">
-        <v>1.000060439682944</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="M5">
-        <v>0.9999093356454942</v>
+        <v>0.9997264315922192</v>
       </c>
       <c r="N5">
-        <v>0.9999093356454942</v>
+        <v>0.9997264315922192</v>
       </c>
       <c r="O5">
-        <v>0.9998952320160056</v>
+        <v>0.9996838772766582</v>
       </c>
       <c r="P5">
-        <v>0.9999597036579777</v>
+        <v>0.9998784128722388</v>
       </c>
       <c r="Q5">
-        <v>0.9999597036579777</v>
+        <v>0.9998784128722388</v>
       </c>
       <c r="R5">
-        <v>0.9999848876642194</v>
+        <v>0.9999544035122485</v>
       </c>
       <c r="S5">
-        <v>0.9999848876642194</v>
+        <v>0.9999544035122485</v>
       </c>
       <c r="T5">
-        <v>0.999994626254626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999837876633054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000088639335028</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="D6">
-        <v>0.9996454045253692</v>
+        <v>0.9977060759030035</v>
       </c>
       <c r="E6">
-        <v>1.000088639335028</v>
+        <v>0.9977060759030035</v>
       </c>
       <c r="F6">
-        <v>1.000088639335028</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="G6">
-        <v>1.000236402954576</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="H6">
-        <v>0.9998049741674401</v>
+        <v>1.001529283599747</v>
       </c>
       <c r="I6">
-        <v>1.000088639335028</v>
+        <v>0.9987383444586185</v>
       </c>
       <c r="J6">
-        <v>0.9996454045253692</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="K6">
-        <v>1.000088639335028</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="L6">
-        <v>1.000088639335028</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="M6">
-        <v>0.9998670219301988</v>
+        <v>0.9991397717207533</v>
       </c>
       <c r="N6">
-        <v>0.9998670219301988</v>
+        <v>0.9991397717207533</v>
       </c>
       <c r="O6">
-        <v>0.9998463393426126</v>
+        <v>0.999005962633375</v>
       </c>
       <c r="P6">
-        <v>0.9999408943984753</v>
+        <v>0.9996176703266699</v>
       </c>
       <c r="Q6">
-        <v>0.9999408943984753</v>
+        <v>0.9996176703266699</v>
       </c>
       <c r="R6">
-        <v>0.9999778306326136</v>
+        <v>0.9998566196296282</v>
       </c>
       <c r="S6">
-        <v>0.9999778306326136</v>
+        <v>0.9998566196296282</v>
       </c>
       <c r="T6">
-        <v>0.9999921166087451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9999490177628131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000001250579469</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="D7">
-        <v>0.9999949936378895</v>
+        <v>0.9999142836180072</v>
       </c>
       <c r="E7">
-        <v>1.000001250579469</v>
+        <v>0.9999142836180072</v>
       </c>
       <c r="F7">
-        <v>1.000001250579469</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="G7">
-        <v>1.000003339469771</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="H7">
-        <v>0.9999972469212343</v>
+        <v>1.000057146029671</v>
       </c>
       <c r="I7">
-        <v>1.000001250579469</v>
+        <v>0.9999528563377134</v>
       </c>
       <c r="J7">
-        <v>0.9999949936378895</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="K7">
-        <v>1.000001250579469</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="L7">
-        <v>1.000001250579469</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="M7">
-        <v>0.9999981221086791</v>
+        <v>0.999967855604915</v>
       </c>
       <c r="N7">
-        <v>0.9999981221086791</v>
+        <v>0.999967855604915</v>
       </c>
       <c r="O7">
-        <v>0.9999978303795308</v>
+        <v>0.9999628558491812</v>
       </c>
       <c r="P7">
-        <v>0.9999991649322757</v>
+        <v>0.9999857129338844</v>
       </c>
       <c r="Q7">
-        <v>0.9999991649322757</v>
+        <v>0.9999857129338844</v>
       </c>
       <c r="R7">
-        <v>0.9999996863440739</v>
+        <v>0.9999946415983689</v>
       </c>
       <c r="S7">
-        <v>0.9999996863440739</v>
+        <v>0.9999946415983689</v>
       </c>
       <c r="T7">
-        <v>0.9999998886278835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999980947934767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000362602804</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="D8">
-        <v>0.9999854917439506</v>
+        <v>0.9999942847460145</v>
       </c>
       <c r="E8">
-        <v>1.00000362602804</v>
+        <v>0.9999942847460145</v>
       </c>
       <c r="F8">
-        <v>1.00000362602804</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="G8">
-        <v>1.00000967402313</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="H8">
-        <v>0.9999920208051866</v>
+        <v>1.00000381159924</v>
       </c>
       <c r="I8">
-        <v>1.00000362602804</v>
+        <v>0.9999968574399551</v>
       </c>
       <c r="J8">
-        <v>0.9999854917439506</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="K8">
-        <v>1.00000362602804</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="L8">
-        <v>1.00000362602804</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="M8">
-        <v>0.9999945588859951</v>
+        <v>0.9999978561740628</v>
       </c>
       <c r="N8">
-        <v>0.9999945588859951</v>
+        <v>0.9999978561740628</v>
       </c>
       <c r="O8">
-        <v>0.9999937128590589</v>
+        <v>0.9999975232626935</v>
       </c>
       <c r="P8">
-        <v>0.9999975812666766</v>
+        <v>0.9999990466500789</v>
       </c>
       <c r="Q8">
-        <v>0.9999975812666766</v>
+        <v>0.9999990466500789</v>
       </c>
       <c r="R8">
-        <v>0.9999990924570173</v>
+        <v>0.999999641888087</v>
       </c>
       <c r="S8">
-        <v>0.9999990924570173</v>
+        <v>0.999999641888087</v>
       </c>
       <c r="T8">
-        <v>0.9999996774427311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999998727652571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000005003611292</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="D9">
-        <v>0.9999799801512443</v>
+        <v>0.9998738408886226</v>
       </c>
       <c r="E9">
-        <v>1.000005003611292</v>
+        <v>0.9998738408886226</v>
       </c>
       <c r="F9">
-        <v>1.000005003611292</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="G9">
-        <v>1.000013347992601</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="H9">
-        <v>0.9999889900544788</v>
+        <v>1.000084109098684</v>
       </c>
       <c r="I9">
-        <v>1.000005003611292</v>
+        <v>0.9999306130915886</v>
       </c>
       <c r="J9">
-        <v>0.9999799801512443</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="K9">
-        <v>1.000005003611292</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="L9">
-        <v>1.000005003611292</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="M9">
-        <v>0.9999924918812679</v>
+        <v>0.999952688799393</v>
       </c>
       <c r="N9">
-        <v>0.9999924918812679</v>
+        <v>0.999952688799393</v>
       </c>
       <c r="O9">
-        <v>0.9999913246056716</v>
+        <v>0.9999453302301249</v>
       </c>
       <c r="P9">
-        <v>0.9999966624579425</v>
+        <v>0.9999789714363164</v>
       </c>
       <c r="Q9">
-        <v>0.9999966624579425</v>
+        <v>0.9999789714363164</v>
       </c>
       <c r="R9">
-        <v>0.9999987477462797</v>
+        <v>0.9999921127547782</v>
       </c>
       <c r="S9">
-        <v>0.9999987477462797</v>
+        <v>0.9999921127547782</v>
       </c>
       <c r="T9">
-        <v>0.9999995548386997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999971955348976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000010815964835</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="D10">
-        <v>0.9999567311207644</v>
+        <v>0.9976720039538238</v>
       </c>
       <c r="E10">
-        <v>1.000010815964835</v>
+        <v>0.9976720039538238</v>
       </c>
       <c r="F10">
-        <v>1.000010815964835</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="G10">
-        <v>1.00002884824147</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="H10">
-        <v>0.9999762015583677</v>
+        <v>1.001551997862091</v>
       </c>
       <c r="I10">
-        <v>1.000010815964835</v>
+        <v>0.9987196047587789</v>
       </c>
       <c r="J10">
-        <v>0.9999567311207644</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="K10">
-        <v>1.000010815964835</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="L10">
-        <v>1.000010815964835</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="M10">
-        <v>0.9999837735427997</v>
+        <v>0.9991269948077139</v>
       </c>
       <c r="N10">
-        <v>0.9999837735427997</v>
+        <v>0.9991269948077139</v>
       </c>
       <c r="O10">
-        <v>0.9999812495479891</v>
+        <v>0.9989911981247356</v>
       </c>
       <c r="P10">
-        <v>0.9999927876834781</v>
+        <v>0.9996119917590107</v>
       </c>
       <c r="Q10">
-        <v>0.9999927876834781</v>
+        <v>0.9996119917590107</v>
       </c>
       <c r="R10">
-        <v>0.9999972947538173</v>
+        <v>0.9998544902346591</v>
       </c>
       <c r="S10">
-        <v>0.9999972947538173</v>
+        <v>0.9998544902346591</v>
       </c>
       <c r="T10">
-        <v>0.9999990381358511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9999482605932511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000018112632871</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="D11">
-        <v>0.999927540127946</v>
+        <v>0.9985453291719941</v>
       </c>
       <c r="E11">
-        <v>1.000018112632871</v>
+        <v>0.9985453291719941</v>
       </c>
       <c r="F11">
-        <v>1.000018112632871</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="G11">
-        <v>1.000048307244884</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="H11">
-        <v>0.9999601478627195</v>
+        <v>1.0009697832834</v>
       </c>
       <c r="I11">
-        <v>1.000018112632871</v>
+        <v>0.9991999318335034</v>
       </c>
       <c r="J11">
-        <v>0.999927540127946</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="K11">
-        <v>1.000018112632871</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="L11">
-        <v>1.000018112632871</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="M11">
-        <v>0.9999728263804084</v>
+        <v>0.9994544979434519</v>
       </c>
       <c r="N11">
-        <v>0.9999728263804084</v>
+        <v>0.9994544979434519</v>
       </c>
       <c r="O11">
-        <v>0.9999686002078455</v>
+        <v>0.9993696425734692</v>
       </c>
       <c r="P11">
-        <v>0.9999879217978959</v>
+        <v>0.9997575542006044</v>
       </c>
       <c r="Q11">
-        <v>0.9999879217978959</v>
+        <v>0.9997575542006044</v>
       </c>
       <c r="R11">
-        <v>0.9999954695066396</v>
+        <v>0.9999090823291807</v>
       </c>
       <c r="S11">
-        <v>0.9999954695066396</v>
+        <v>0.9999090823291807</v>
       </c>
       <c r="T11">
-        <v>0.9999983888556937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999676740722711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9997438839930276</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="D12">
-        <v>1.001024454427962</v>
+        <v>0.9992558704842092</v>
       </c>
       <c r="E12">
-        <v>0.9997438839930276</v>
+        <v>0.9992558704842092</v>
       </c>
       <c r="F12">
-        <v>0.9997438839930276</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="G12">
-        <v>0.9993170335654568</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="H12">
-        <v>1.000563447471753</v>
+        <v>1.000496087284209</v>
       </c>
       <c r="I12">
-        <v>0.9997438839930276</v>
+        <v>0.9995907291789488</v>
       </c>
       <c r="J12">
-        <v>1.001024454427962</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="K12">
-        <v>0.9997438839930276</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="L12">
-        <v>0.9997438839930276</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="M12">
-        <v>1.000384169210495</v>
+        <v>0.9997209499473676</v>
       </c>
       <c r="N12">
-        <v>1.000384169210495</v>
+        <v>0.9997209499473676</v>
       </c>
       <c r="O12">
-        <v>1.000443928630914</v>
+        <v>0.9996775430245614</v>
       </c>
       <c r="P12">
-        <v>1.000170740804672</v>
+        <v>0.9998759764350872</v>
       </c>
       <c r="Q12">
-        <v>1.000170740804672</v>
+        <v>0.9998759764350872</v>
       </c>
       <c r="R12">
-        <v>1.000064026601761</v>
+        <v>0.9999534896789468</v>
       </c>
       <c r="S12">
-        <v>1.000064026601761</v>
+        <v>0.9999534896789468</v>
       </c>
       <c r="T12">
-        <v>1.000022764574042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999834625298242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999335888361706</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="D13">
-        <v>1.000265646361155</v>
+        <v>1.000457854987982</v>
       </c>
       <c r="E13">
-        <v>0.9999335888361706</v>
+        <v>1.000457854987982</v>
       </c>
       <c r="F13">
-        <v>0.9999335888361706</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="G13">
-        <v>0.9998229023328564</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="H13">
-        <v>1.000146100462314</v>
+        <v>0.999694763146775</v>
       </c>
       <c r="I13">
-        <v>0.9999335888361706</v>
+        <v>1.000251820771277</v>
       </c>
       <c r="J13">
-        <v>1.000265646361155</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="K13">
-        <v>0.9999335888361706</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="L13">
-        <v>0.9999335888361706</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="M13">
-        <v>1.000099617598663</v>
+        <v>1.000171695210212</v>
       </c>
       <c r="N13">
-        <v>1.000099617598663</v>
+        <v>1.000171695210212</v>
       </c>
       <c r="O13">
-        <v>1.000115111886546</v>
+        <v>1.000198403730567</v>
       </c>
       <c r="P13">
-        <v>1.000044274677832</v>
+        <v>1.000076308617622</v>
       </c>
       <c r="Q13">
-        <v>1.000044274677832</v>
+        <v>1.000076308617622</v>
       </c>
       <c r="R13">
-        <v>1.000016603217417</v>
+        <v>1.000028615321327</v>
       </c>
       <c r="S13">
-        <v>1.000016603217417</v>
+        <v>1.000028615321327</v>
       </c>
       <c r="T13">
-        <v>1.000005902610806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00001017420056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9991987576358311</v>
+        <v>1.0010055</v>
       </c>
       <c r="D14">
-        <v>1.003204966717466</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E14">
-        <v>0.9991987576358311</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F14">
-        <v>0.9991987576358311</v>
+        <v>1.0010055</v>
       </c>
       <c r="G14">
-        <v>0.9978633559699731</v>
+        <v>1.0010055</v>
       </c>
       <c r="H14">
-        <v>1.001762729985097</v>
+        <v>1.0026814</v>
       </c>
       <c r="I14">
-        <v>0.9991987576358311</v>
+        <v>0.9977878500000004</v>
       </c>
       <c r="J14">
-        <v>1.003204966717466</v>
+        <v>1.0010055</v>
       </c>
       <c r="K14">
-        <v>0.9991987576358311</v>
+        <v>1.0010055</v>
       </c>
       <c r="L14">
-        <v>0.9991987576358311</v>
+        <v>1.0010055</v>
       </c>
       <c r="M14">
-        <v>1.001201862176649</v>
+        <v>0.9984917</v>
       </c>
       <c r="N14">
-        <v>1.001201862176649</v>
+        <v>0.9984917</v>
       </c>
       <c r="O14">
-        <v>1.001388818112798</v>
+        <v>0.9982570833333334</v>
       </c>
       <c r="P14">
-        <v>1.000534160663043</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q14">
-        <v>1.000534160663043</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R14">
-        <v>1.00020030990624</v>
+        <v>0.9997486</v>
       </c>
       <c r="S14">
-        <v>1.00020030990624</v>
+        <v>0.9997486</v>
       </c>
       <c r="T14">
-        <v>1.000071220930005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="D15">
-        <v>1.000855599207405</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E15">
-        <v>0.9997860993542457</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F15">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="G15">
-        <v>0.999429601250447</v>
+        <v>1.0010055</v>
       </c>
       <c r="H15">
-        <v>1.000470581567174</v>
+        <v>1.0026814</v>
       </c>
       <c r="I15">
-        <v>0.9997860993542457</v>
+        <v>0.99778785</v>
       </c>
       <c r="J15">
-        <v>1.000855599207405</v>
+        <v>1.0010055</v>
       </c>
       <c r="K15">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>1.000320849280825</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>1.000320849280825</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>1.000370760042941</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>1.000142599305299</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>1.000142599305299</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>1.000053474317536</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>1.000053474317536</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>1.000019013347961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000066395113</v>
+        <v>1.0026814</v>
       </c>
       <c r="D16">
-        <v>0.9999997301884272</v>
+        <v>0.98927441</v>
       </c>
       <c r="E16">
-        <v>1.000000066395113</v>
+        <v>0.98927441</v>
       </c>
       <c r="F16">
-        <v>1.000000066395113</v>
+        <v>1.0026814</v>
       </c>
       <c r="G16">
-        <v>1.000000181735696</v>
+        <v>1.0026814</v>
       </c>
       <c r="H16">
-        <v>0.9999998520140821</v>
+        <v>1.0071504</v>
       </c>
       <c r="I16">
-        <v>1.000000066395113</v>
+        <v>0.9941009200000001</v>
       </c>
       <c r="J16">
-        <v>0.9999997301884272</v>
+        <v>1.0026814</v>
       </c>
       <c r="K16">
-        <v>1.000000066395113</v>
+        <v>1.0026814</v>
       </c>
       <c r="L16">
-        <v>1.000000066395113</v>
+        <v>1.0026814</v>
       </c>
       <c r="M16">
-        <v>0.9999998982917704</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="N16">
-        <v>0.9999998982917704</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="O16">
-        <v>0.9999998828658744</v>
+        <v>0.9953522433333334</v>
       </c>
       <c r="P16">
-        <v>0.999999954326218</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q16">
-        <v>0.999999954326218</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R16">
-        <v>0.9999999823434419</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S16">
-        <v>0.9999999823434419</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T16">
-        <v>0.9999999938539242</v>
+        <v>0.999761655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000001427602111</v>
+        <v>1.0000628</v>
       </c>
       <c r="D17">
-        <v>0.9999942847460146</v>
+        <v>0.99974862</v>
       </c>
       <c r="E17">
-        <v>1.000001427602111</v>
+        <v>0.99974862</v>
       </c>
       <c r="F17">
-        <v>1.000001427602111</v>
+        <v>1.0000628</v>
       </c>
       <c r="G17">
-        <v>1.00000381159924</v>
+        <v>1.0000628</v>
       </c>
       <c r="H17">
-        <v>0.9999968574399551</v>
+        <v>1.0001676</v>
       </c>
       <c r="I17">
-        <v>1.000001427602111</v>
+        <v>0.9998617400000001</v>
       </c>
       <c r="J17">
-        <v>0.9999942847460146</v>
+        <v>1.0000628</v>
       </c>
       <c r="K17">
-        <v>1.000001427602111</v>
+        <v>1.0000628</v>
       </c>
       <c r="L17">
-        <v>1.000001427602111</v>
+        <v>1.0000628</v>
       </c>
       <c r="M17">
-        <v>0.9999978561740628</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="N17">
-        <v>0.9999978561740628</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="O17">
-        <v>0.9999975232626935</v>
+        <v>0.9998910533333333</v>
       </c>
       <c r="P17">
-        <v>0.9999990466500789</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="Q17">
-        <v>0.9999990466500789</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="R17">
-        <v>0.999999641888087</v>
+        <v>0.999984255</v>
       </c>
       <c r="S17">
-        <v>0.999999641888087</v>
+        <v>0.999984255</v>
       </c>
       <c r="T17">
-        <v>0.9999998727652571</v>
+        <v>0.9999943933333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000005028184289</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="D18">
-        <v>0.9999798780408458</v>
+        <v>0.9984572854794522</v>
       </c>
       <c r="E18">
-        <v>1.000005028184289</v>
+        <v>0.9984572854794522</v>
       </c>
       <c r="F18">
-        <v>1.000005028184289</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="G18">
-        <v>1.000013414182644</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="H18">
-        <v>0.9999889301065364</v>
+        <v>1.001028480547945</v>
       </c>
       <c r="I18">
-        <v>1.000005028184289</v>
+        <v>0.9991514984931507</v>
       </c>
       <c r="J18">
-        <v>0.9999798780408458</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="K18">
-        <v>1.000005028184289</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="L18">
-        <v>1.000005028184289</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="M18">
-        <v>0.9999924531125672</v>
+        <v>0.999421480410959</v>
       </c>
       <c r="N18">
-        <v>0.9999924531125672</v>
+        <v>0.999421480410959</v>
       </c>
       <c r="O18">
-        <v>0.9999912787772236</v>
+        <v>0.9993314864383563</v>
       </c>
       <c r="P18">
-        <v>0.999996644803141</v>
+        <v>0.9997428787214613</v>
       </c>
       <c r="Q18">
-        <v>0.999996644803141</v>
+        <v>0.9997428787214613</v>
       </c>
       <c r="R18">
-        <v>0.9999987406484279</v>
+        <v>0.9999035778767125</v>
       </c>
       <c r="S18">
-        <v>0.9999987406484279</v>
+        <v>0.9999035778767125</v>
       </c>
       <c r="T18">
-        <v>0.9999995511471486</v>
+        <v>0.9999657150913244</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000011783238443</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="D19">
-        <v>0.9999528636742961</v>
+        <v>0.9981830073684212</v>
       </c>
       <c r="E19">
-        <v>1.000011783238443</v>
+        <v>0.9981830073684212</v>
       </c>
       <c r="F19">
-        <v>1.000011783238443</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="G19">
-        <v>1.00003142674451</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="H19">
-        <v>0.9999740766238689</v>
+        <v>1.001211332631579</v>
       </c>
       <c r="I19">
-        <v>1.000011783238443</v>
+        <v>0.9990006457894739</v>
       </c>
       <c r="J19">
-        <v>0.9999528636742961</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="K19">
-        <v>1.000011783238443</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="L19">
-        <v>1.000011783238443</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="M19">
-        <v>0.9999823234563694</v>
+        <v>0.9993186260526317</v>
       </c>
       <c r="N19">
-        <v>0.9999823234563694</v>
+        <v>0.9993186260526317</v>
       </c>
       <c r="O19">
-        <v>0.9999795745122025</v>
+        <v>0.9992126326315791</v>
       </c>
       <c r="P19">
-        <v>0.9999921433837272</v>
+        <v>0.9996971656140351</v>
       </c>
       <c r="Q19">
-        <v>0.9999921433837272</v>
+        <v>0.9996971656140351</v>
       </c>
       <c r="R19">
-        <v>0.9999970533474061</v>
+        <v>0.9998864353947368</v>
       </c>
       <c r="S19">
-        <v>0.9999970533474061</v>
+        <v>0.9998864353947368</v>
       </c>
       <c r="T19">
-        <v>0.9999989527930006</v>
+        <v>0.9999596199999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.0010055</v>
+      </c>
+      <c r="D20">
+        <v>0.9959779000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.9959779000000002</v>
+      </c>
+      <c r="F20">
+        <v>1.0010055</v>
+      </c>
+      <c r="G20">
+        <v>1.0010055</v>
+      </c>
+      <c r="H20">
+        <v>1.0026814</v>
+      </c>
+      <c r="I20">
+        <v>0.9977878499999998</v>
+      </c>
+      <c r="J20">
+        <v>1.0010055</v>
+      </c>
+      <c r="K20">
+        <v>1.0010055</v>
+      </c>
+      <c r="L20">
+        <v>1.0010055</v>
+      </c>
+      <c r="M20">
+        <v>0.9984917000000003</v>
+      </c>
+      <c r="N20">
+        <v>0.9984917000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.9982570833333334</v>
+      </c>
+      <c r="P20">
+        <v>0.9993296333333337</v>
+      </c>
+      <c r="Q20">
+        <v>0.9993296333333337</v>
+      </c>
+      <c r="R20">
+        <v>0.9997486000000004</v>
+      </c>
+      <c r="S20">
+        <v>0.9997486000000004</v>
+      </c>
+      <c r="T20">
+        <v>0.9999106083333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="D21">
+        <v>1.003204966717466</v>
+      </c>
+      <c r="E21">
+        <v>1.003204966717466</v>
+      </c>
+      <c r="F21">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="G21">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="H21">
+        <v>0.9978633559699731</v>
+      </c>
+      <c r="I21">
+        <v>1.001762729985097</v>
+      </c>
+      <c r="J21">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="K21">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="L21">
+        <v>0.9991987576358312</v>
+      </c>
+      <c r="M21">
+        <v>1.001201862176649</v>
+      </c>
+      <c r="N21">
+        <v>1.001201862176649</v>
+      </c>
+      <c r="O21">
+        <v>1.001388818112798</v>
+      </c>
+      <c r="P21">
+        <v>1.000534160663043</v>
+      </c>
+      <c r="Q21">
+        <v>1.000534160663043</v>
+      </c>
+      <c r="R21">
+        <v>1.00020030990624</v>
+      </c>
+      <c r="S21">
+        <v>1.00020030990624</v>
+      </c>
+      <c r="T21">
+        <v>1.000071220930005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="D22">
+        <v>1.000855599207405</v>
+      </c>
+      <c r="E22">
+        <v>1.000855599207405</v>
+      </c>
+      <c r="F22">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="G22">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="H22">
+        <v>0.9994296012504473</v>
+      </c>
+      <c r="I22">
+        <v>1.000470581567174</v>
+      </c>
+      <c r="J22">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="K22">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="L22">
+        <v>0.9997860993542457</v>
+      </c>
+      <c r="M22">
+        <v>1.000320849280825</v>
+      </c>
+      <c r="N22">
+        <v>1.000320849280825</v>
+      </c>
+      <c r="O22">
+        <v>1.000370760042941</v>
+      </c>
+      <c r="P22">
+        <v>1.000142599305299</v>
+      </c>
+      <c r="Q22">
+        <v>1.000142599305299</v>
+      </c>
+      <c r="R22">
+        <v>1.000053474317536</v>
+      </c>
+      <c r="S22">
+        <v>1.000053474317536</v>
+      </c>
+      <c r="T22">
+        <v>1.000019013347961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="D23">
+        <v>1.001024454427962</v>
+      </c>
+      <c r="E23">
+        <v>1.001024454427962</v>
+      </c>
+      <c r="F23">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="G23">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="H23">
+        <v>0.9993170335654566</v>
+      </c>
+      <c r="I23">
+        <v>1.000563447471753</v>
+      </c>
+      <c r="J23">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="K23">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="L23">
+        <v>0.9997438839930276</v>
+      </c>
+      <c r="M23">
+        <v>1.000384169210495</v>
+      </c>
+      <c r="N23">
+        <v>1.000384169210495</v>
+      </c>
+      <c r="O23">
+        <v>1.000443928630914</v>
+      </c>
+      <c r="P23">
+        <v>1.000170740804672</v>
+      </c>
+      <c r="Q23">
+        <v>1.000170740804672</v>
+      </c>
+      <c r="R23">
+        <v>1.000064026601761</v>
+      </c>
+      <c r="S23">
+        <v>1.000064026601761</v>
+      </c>
+      <c r="T23">
+        <v>1.000022764574042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="D24">
+        <v>1.000265646361155</v>
+      </c>
+      <c r="E24">
+        <v>1.000265646361155</v>
+      </c>
+      <c r="F24">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="G24">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="H24">
+        <v>0.9998229023328564</v>
+      </c>
+      <c r="I24">
+        <v>1.000146100462313</v>
+      </c>
+      <c r="J24">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="K24">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="L24">
+        <v>0.9999335888361707</v>
+      </c>
+      <c r="M24">
+        <v>1.000099617598663</v>
+      </c>
+      <c r="N24">
+        <v>1.000099617598663</v>
+      </c>
+      <c r="O24">
+        <v>1.000115111886546</v>
+      </c>
+      <c r="P24">
+        <v>1.000044274677832</v>
+      </c>
+      <c r="Q24">
+        <v>1.000044274677832</v>
+      </c>
+      <c r="R24">
+        <v>1.000016603217417</v>
+      </c>
+      <c r="S24">
+        <v>1.000016603217417</v>
+      </c>
+      <c r="T24">
+        <v>1.000005902610806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000786374451999</v>
+      </c>
+      <c r="D25">
+        <v>0.9968544722509313</v>
+      </c>
+      <c r="E25">
+        <v>0.9968544722509313</v>
+      </c>
+      <c r="F25">
+        <v>1.000786374451999</v>
+      </c>
+      <c r="G25">
+        <v>1.000786374451999</v>
+      </c>
+      <c r="H25">
+        <v>1.002097016214017</v>
+      </c>
+      <c r="I25">
+        <v>0.998269960179113</v>
+      </c>
+      <c r="J25">
+        <v>1.000786374451999</v>
+      </c>
+      <c r="K25">
+        <v>1.000786374451999</v>
+      </c>
+      <c r="L25">
+        <v>1.000786374451999</v>
+      </c>
+      <c r="M25">
+        <v>0.998820423351465</v>
+      </c>
+      <c r="N25">
+        <v>0.998820423351465</v>
+      </c>
+      <c r="O25">
+        <v>0.9986369356273478</v>
+      </c>
+      <c r="P25">
+        <v>0.9994757403849762</v>
+      </c>
+      <c r="Q25">
+        <v>0.9994757403849762</v>
+      </c>
+      <c r="R25">
+        <v>0.9998033989017319</v>
+      </c>
+      <c r="S25">
+        <v>0.9998033989017319</v>
+      </c>
+      <c r="T25">
+        <v>0.9999300953333429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000210634089358</v>
+      </c>
+      <c r="D26">
+        <v>0.9991574535628811</v>
+      </c>
+      <c r="E26">
+        <v>0.9991574535628811</v>
+      </c>
+      <c r="F26">
+        <v>1.000210634089358</v>
+      </c>
+      <c r="G26">
+        <v>1.000210634089358</v>
+      </c>
+      <c r="H26">
+        <v>1.000561703341955</v>
+      </c>
+      <c r="I26">
+        <v>0.9995365973707515</v>
+      </c>
+      <c r="J26">
+        <v>1.000210634089358</v>
+      </c>
+      <c r="K26">
+        <v>1.000210634089358</v>
+      </c>
+      <c r="L26">
+        <v>1.000210634089358</v>
+      </c>
+      <c r="M26">
+        <v>0.9996840438261193</v>
+      </c>
+      <c r="N26">
+        <v>0.9996840438261193</v>
+      </c>
+      <c r="O26">
+        <v>0.9996348950076633</v>
+      </c>
+      <c r="P26">
+        <v>0.9998595739138653</v>
+      </c>
+      <c r="Q26">
+        <v>0.9998595739138653</v>
+      </c>
+      <c r="R26">
+        <v>0.9999473389577384</v>
+      </c>
+      <c r="S26">
+        <v>0.9999473389577384</v>
+      </c>
+      <c r="T26">
+        <v>0.9999812760906099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="D27">
+        <v>0.9997602726248846</v>
+      </c>
+      <c r="E27">
+        <v>0.9997602726248846</v>
+      </c>
+      <c r="F27">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="G27">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="H27">
+        <v>1.000159814687509</v>
+      </c>
+      <c r="I27">
+        <v>0.9998681701672115</v>
+      </c>
+      <c r="J27">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="K27">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="L27">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="M27">
+        <v>0.9999100970945893</v>
+      </c>
+      <c r="N27">
+        <v>0.9999100970945893</v>
+      </c>
+      <c r="O27">
+        <v>0.9998961214521301</v>
+      </c>
+      <c r="P27">
+        <v>0.9999600385844909</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999600385844909</v>
+      </c>
+      <c r="R27">
+        <v>0.9999850093294417</v>
+      </c>
+      <c r="S27">
+        <v>0.9999850093294417</v>
+      </c>
+      <c r="T27">
+        <v>0.9999946703620811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="D28">
+        <v>0.999583941443181</v>
+      </c>
+      <c r="E28">
+        <v>0.999583941443181</v>
+      </c>
+      <c r="F28">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="G28">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="H28">
+        <v>1.000277374774564</v>
+      </c>
+      <c r="I28">
+        <v>0.9997711622563981</v>
+      </c>
+      <c r="J28">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="K28">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="L28">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="M28">
+        <v>0.9998439760475821</v>
+      </c>
+      <c r="N28">
+        <v>0.9998439760475821</v>
+      </c>
+      <c r="O28">
+        <v>0.9998197047838541</v>
+      </c>
+      <c r="P28">
+        <v>0.9999306542490493</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999306542490493</v>
+      </c>
+      <c r="R28">
+        <v>0.9999739933497829</v>
+      </c>
+      <c r="S28">
+        <v>0.9999739933497829</v>
+      </c>
+      <c r="T28">
+        <v>0.9999907517383488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9999126276123232</v>
+      </c>
+      <c r="D29">
+        <v>1.000349452403289</v>
+      </c>
+      <c r="E29">
+        <v>1.000349452403289</v>
+      </c>
+      <c r="F29">
+        <v>0.9999126276123232</v>
+      </c>
+      <c r="G29">
+        <v>0.9999126276123232</v>
+      </c>
+      <c r="H29">
+        <v>0.999767024522735</v>
+      </c>
+      <c r="I29">
+        <v>1.000192189720186</v>
+      </c>
+      <c r="J29">
+        <v>0.9999126276123232</v>
+      </c>
+      <c r="K29">
+        <v>0.9999126276123232</v>
+      </c>
+      <c r="L29">
+        <v>0.9999126276123232</v>
+      </c>
+      <c r="M29">
+        <v>1.000131040007806</v>
+      </c>
+      <c r="N29">
+        <v>1.000131040007806</v>
+      </c>
+      <c r="O29">
+        <v>1.000151423245266</v>
+      </c>
+      <c r="P29">
+        <v>1.000058235875978</v>
+      </c>
+      <c r="Q29">
+        <v>1.000058235875978</v>
+      </c>
+      <c r="R29">
+        <v>1.000021833810065</v>
+      </c>
+      <c r="S29">
+        <v>1.000021833810065</v>
+      </c>
+      <c r="T29">
+        <v>1.000007758247196</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00036365728813</v>
+        <v>1.000141512841741</v>
       </c>
       <c r="D4">
-        <v>0.9985453661887308</v>
+        <v>0.9994339418184853</v>
       </c>
       <c r="E4">
-        <v>0.9985453661887308</v>
+        <v>0.9994339418184853</v>
       </c>
       <c r="F4">
-        <v>1.00036365728813</v>
+        <v>1.000141512841741</v>
       </c>
       <c r="G4">
-        <v>1.00036365728813</v>
+        <v>1.000141512841741</v>
       </c>
       <c r="H4">
-        <v>1.000969758814892</v>
+        <v>1.000377373935176</v>
       </c>
       <c r="I4">
-        <v>0.9991999517167014</v>
+        <v>0.9996886683797175</v>
       </c>
       <c r="J4">
-        <v>1.00036365728813</v>
+        <v>1.000141512841741</v>
       </c>
       <c r="K4">
-        <v>1.00036365728813</v>
+        <v>1.000141512841741</v>
       </c>
       <c r="L4">
-        <v>1.00036365728813</v>
+        <v>1.000141512841741</v>
       </c>
       <c r="M4">
-        <v>0.9994545117384301</v>
+        <v>0.9997877273301135</v>
       </c>
       <c r="N4">
-        <v>0.9994545117384301</v>
+        <v>0.9997877273301135</v>
       </c>
       <c r="O4">
-        <v>0.9993696583978539</v>
+        <v>0.9997547076799815</v>
       </c>
       <c r="P4">
-        <v>0.9997575602549965</v>
+        <v>0.9999056558339895</v>
       </c>
       <c r="Q4">
-        <v>0.9997575602549965</v>
+        <v>0.9999056558339895</v>
       </c>
       <c r="R4">
-        <v>0.9999090845132799</v>
+        <v>0.9999646200859276</v>
       </c>
       <c r="S4">
-        <v>0.9999090845132799</v>
+        <v>0.9999646200859276</v>
       </c>
       <c r="T4">
-        <v>0.999967674764119</v>
+        <v>0.9999874204431006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000182375432278</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="D5">
-        <v>0.9992704877521609</v>
+        <v>0.9959778999999983</v>
       </c>
       <c r="E5">
-        <v>0.9992704877521609</v>
+        <v>0.9959778999999983</v>
       </c>
       <c r="F5">
-        <v>1.000182375432278</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="G5">
-        <v>1.000182375432278</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="H5">
-        <v>1.000486343285302</v>
+        <v>1.002681400000001</v>
       </c>
       <c r="I5">
-        <v>0.9995987686455363</v>
+        <v>0.9977878499999963</v>
       </c>
       <c r="J5">
-        <v>1.000182375432278</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="K5">
-        <v>1.000182375432278</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="L5">
-        <v>1.000182375432278</v>
+        <v>1.001005499999995</v>
       </c>
       <c r="M5">
-        <v>0.9997264315922192</v>
+        <v>0.9984916999999964</v>
       </c>
       <c r="N5">
-        <v>0.9997264315922192</v>
+        <v>0.9984916999999964</v>
       </c>
       <c r="O5">
-        <v>0.9996838772766582</v>
+        <v>0.9982570833333297</v>
       </c>
       <c r="P5">
-        <v>0.9998784128722388</v>
+        <v>0.9993296333333292</v>
       </c>
       <c r="Q5">
-        <v>0.9998784128722388</v>
+        <v>0.9993296333333292</v>
       </c>
       <c r="R5">
-        <v>0.9999544035122485</v>
+        <v>0.9997485999999955</v>
       </c>
       <c r="S5">
-        <v>0.9999544035122485</v>
+        <v>0.9997485999999955</v>
       </c>
       <c r="T5">
-        <v>0.9999837876633054</v>
+        <v>0.9999106083333299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000573467538503</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="D6">
-        <v>0.9977060759030035</v>
+        <v>0.9985453661887308</v>
       </c>
       <c r="E6">
-        <v>0.9977060759030035</v>
+        <v>0.9985453661887308</v>
       </c>
       <c r="F6">
-        <v>1.000573467538503</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="G6">
-        <v>1.000573467538503</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="H6">
-        <v>1.001529283599747</v>
+        <v>1.000969758814892</v>
       </c>
       <c r="I6">
-        <v>0.9987383444586185</v>
+        <v>0.9991999517167014</v>
       </c>
       <c r="J6">
-        <v>1.000573467538503</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="K6">
-        <v>1.000573467538503</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="L6">
-        <v>1.000573467538503</v>
+        <v>1.00036365728813</v>
       </c>
       <c r="M6">
-        <v>0.9991397717207533</v>
+        <v>0.9994545117384301</v>
       </c>
       <c r="N6">
-        <v>0.9991397717207533</v>
+        <v>0.9994545117384301</v>
       </c>
       <c r="O6">
-        <v>0.999005962633375</v>
+        <v>0.9993696583978539</v>
       </c>
       <c r="P6">
-        <v>0.9996176703266699</v>
+        <v>0.9997575602549965</v>
       </c>
       <c r="Q6">
-        <v>0.9996176703266699</v>
+        <v>0.9997575602549965</v>
       </c>
       <c r="R6">
-        <v>0.9998566196296282</v>
+        <v>0.9999090845132799</v>
       </c>
       <c r="S6">
-        <v>0.9998566196296282</v>
+        <v>0.9999090845132799</v>
       </c>
       <c r="T6">
-        <v>0.9999490177628131</v>
+        <v>0.999967674764119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000021427591823</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="D7">
-        <v>0.9999142836180072</v>
+        <v>0.9992704877521609</v>
       </c>
       <c r="E7">
-        <v>0.9999142836180072</v>
+        <v>0.9992704877521609</v>
       </c>
       <c r="F7">
-        <v>1.000021427591823</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="G7">
-        <v>1.000021427591823</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="H7">
-        <v>1.000057146029671</v>
+        <v>1.000486343285302</v>
       </c>
       <c r="I7">
-        <v>0.9999528563377134</v>
+        <v>0.9995987686455363</v>
       </c>
       <c r="J7">
-        <v>1.000021427591823</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="K7">
-        <v>1.000021427591823</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="L7">
-        <v>1.000021427591823</v>
+        <v>1.000182375432278</v>
       </c>
       <c r="M7">
-        <v>0.999967855604915</v>
+        <v>0.9997264315922192</v>
       </c>
       <c r="N7">
-        <v>0.999967855604915</v>
+        <v>0.9997264315922192</v>
       </c>
       <c r="O7">
-        <v>0.9999628558491812</v>
+        <v>0.9996838772766582</v>
       </c>
       <c r="P7">
-        <v>0.9999857129338844</v>
+        <v>0.9998784128722388</v>
       </c>
       <c r="Q7">
-        <v>0.9999857129338844</v>
+        <v>0.9998784128722388</v>
       </c>
       <c r="R7">
-        <v>0.9999946415983689</v>
+        <v>0.9999544035122485</v>
       </c>
       <c r="S7">
-        <v>0.9999946415983689</v>
+        <v>0.9999544035122485</v>
       </c>
       <c r="T7">
-        <v>0.9999980947934767</v>
+        <v>0.9999837876633054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000001427602111</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="D8">
-        <v>0.9999942847460145</v>
+        <v>0.9977060759030035</v>
       </c>
       <c r="E8">
-        <v>0.9999942847460145</v>
+        <v>0.9977060759030035</v>
       </c>
       <c r="F8">
-        <v>1.000001427602111</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="G8">
-        <v>1.000001427602111</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="H8">
-        <v>1.00000381159924</v>
+        <v>1.001529283599747</v>
       </c>
       <c r="I8">
-        <v>0.9999968574399551</v>
+        <v>0.9987383444586185</v>
       </c>
       <c r="J8">
-        <v>1.000001427602111</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="K8">
-        <v>1.000001427602111</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="L8">
-        <v>1.000001427602111</v>
+        <v>1.000573467538503</v>
       </c>
       <c r="M8">
-        <v>0.9999978561740628</v>
+        <v>0.9991397717207533</v>
       </c>
       <c r="N8">
-        <v>0.9999978561740628</v>
+        <v>0.9991397717207533</v>
       </c>
       <c r="O8">
-        <v>0.9999975232626935</v>
+        <v>0.999005962633375</v>
       </c>
       <c r="P8">
-        <v>0.9999990466500789</v>
+        <v>0.9996176703266699</v>
       </c>
       <c r="Q8">
-        <v>0.9999990466500789</v>
+        <v>0.9996176703266699</v>
       </c>
       <c r="R8">
-        <v>0.999999641888087</v>
+        <v>0.9998566196296282</v>
       </c>
       <c r="S8">
-        <v>0.999999641888087</v>
+        <v>0.9998566196296282</v>
       </c>
       <c r="T8">
-        <v>0.9999998727652571</v>
+        <v>0.9999490177628131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000031536710164</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="D9">
-        <v>0.9998738408886226</v>
+        <v>0.9999142836180072</v>
       </c>
       <c r="E9">
-        <v>0.9998738408886226</v>
+        <v>0.9999142836180072</v>
       </c>
       <c r="F9">
-        <v>1.000031536710164</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="G9">
-        <v>1.000031536710164</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="H9">
-        <v>1.000084109098684</v>
+        <v>1.000057146029671</v>
       </c>
       <c r="I9">
-        <v>0.9999306130915886</v>
+        <v>0.9999528563377134</v>
       </c>
       <c r="J9">
-        <v>1.000031536710164</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="K9">
-        <v>1.000031536710164</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="L9">
-        <v>1.000031536710164</v>
+        <v>1.000021427591823</v>
       </c>
       <c r="M9">
-        <v>0.999952688799393</v>
+        <v>0.999967855604915</v>
       </c>
       <c r="N9">
-        <v>0.999952688799393</v>
+        <v>0.999967855604915</v>
       </c>
       <c r="O9">
-        <v>0.9999453302301249</v>
+        <v>0.9999628558491812</v>
       </c>
       <c r="P9">
-        <v>0.9999789714363164</v>
+        <v>0.9999857129338844</v>
       </c>
       <c r="Q9">
-        <v>0.9999789714363164</v>
+        <v>0.9999857129338844</v>
       </c>
       <c r="R9">
-        <v>0.9999921127547782</v>
+        <v>0.9999946415983689</v>
       </c>
       <c r="S9">
-        <v>0.9999921127547782</v>
+        <v>0.9999946415983689</v>
       </c>
       <c r="T9">
-        <v>0.9999971955348976</v>
+        <v>0.9999980947934767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000581985661604</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="D10">
-        <v>0.9976720039538238</v>
+        <v>0.9999942847460145</v>
       </c>
       <c r="E10">
-        <v>0.9976720039538238</v>
+        <v>0.9999942847460145</v>
       </c>
       <c r="F10">
-        <v>1.000581985661604</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="G10">
-        <v>1.000581985661604</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="H10">
-        <v>1.001551997862091</v>
+        <v>1.00000381159924</v>
       </c>
       <c r="I10">
-        <v>0.9987196047587789</v>
+        <v>0.9999968574399551</v>
       </c>
       <c r="J10">
-        <v>1.000581985661604</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="K10">
-        <v>1.000581985661604</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="L10">
-        <v>1.000581985661604</v>
+        <v>1.000001427602111</v>
       </c>
       <c r="M10">
-        <v>0.9991269948077139</v>
+        <v>0.9999978561740628</v>
       </c>
       <c r="N10">
-        <v>0.9991269948077139</v>
+        <v>0.9999978561740628</v>
       </c>
       <c r="O10">
-        <v>0.9989911981247356</v>
+        <v>0.9999975232626935</v>
       </c>
       <c r="P10">
-        <v>0.9996119917590107</v>
+        <v>0.9999990466500789</v>
       </c>
       <c r="Q10">
-        <v>0.9996119917590107</v>
+        <v>0.9999990466500789</v>
       </c>
       <c r="R10">
-        <v>0.9998544902346591</v>
+        <v>0.999999641888087</v>
       </c>
       <c r="S10">
-        <v>0.9998544902346591</v>
+        <v>0.999999641888087</v>
       </c>
       <c r="T10">
-        <v>0.9999482605932511</v>
+        <v>0.9999998727652571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00036366671491</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="D11">
-        <v>0.9985453291719941</v>
+        <v>0.9998738408886226</v>
       </c>
       <c r="E11">
-        <v>0.9985453291719941</v>
+        <v>0.9998738408886226</v>
       </c>
       <c r="F11">
-        <v>1.00036366671491</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="G11">
-        <v>1.00036366671491</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="H11">
-        <v>1.0009697832834</v>
+        <v>1.000084109098684</v>
       </c>
       <c r="I11">
-        <v>0.9991999318335034</v>
+        <v>0.9999306130915886</v>
       </c>
       <c r="J11">
-        <v>1.00036366671491</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="K11">
-        <v>1.00036366671491</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="L11">
-        <v>1.00036366671491</v>
+        <v>1.000031536710164</v>
       </c>
       <c r="M11">
-        <v>0.9994544979434519</v>
+        <v>0.999952688799393</v>
       </c>
       <c r="N11">
-        <v>0.9994544979434519</v>
+        <v>0.999952688799393</v>
       </c>
       <c r="O11">
-        <v>0.9993696425734692</v>
+        <v>0.9999453302301249</v>
       </c>
       <c r="P11">
-        <v>0.9997575542006044</v>
+        <v>0.9999789714363164</v>
       </c>
       <c r="Q11">
-        <v>0.9997575542006044</v>
+        <v>0.9999789714363164</v>
       </c>
       <c r="R11">
-        <v>0.9999090823291807</v>
+        <v>0.9999921127547782</v>
       </c>
       <c r="S11">
-        <v>0.9999090823291807</v>
+        <v>0.9999921127547782</v>
       </c>
       <c r="T11">
-        <v>0.9999676740722711</v>
+        <v>0.9999971955348976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000186029410526</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="D12">
-        <v>0.9992558704842092</v>
+        <v>0.9976720039538238</v>
       </c>
       <c r="E12">
-        <v>0.9992558704842092</v>
+        <v>0.9976720039538238</v>
       </c>
       <c r="F12">
-        <v>1.000186029410526</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="G12">
-        <v>1.000186029410526</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="H12">
-        <v>1.000496087284209</v>
+        <v>1.001551997862091</v>
       </c>
       <c r="I12">
-        <v>0.9995907291789488</v>
+        <v>0.9987196047587789</v>
       </c>
       <c r="J12">
-        <v>1.000186029410526</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="K12">
-        <v>1.000186029410526</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="L12">
-        <v>1.000186029410526</v>
+        <v>1.000581985661604</v>
       </c>
       <c r="M12">
-        <v>0.9997209499473676</v>
+        <v>0.9991269948077139</v>
       </c>
       <c r="N12">
-        <v>0.9997209499473676</v>
+        <v>0.9991269948077139</v>
       </c>
       <c r="O12">
-        <v>0.9996775430245614</v>
+        <v>0.9989911981247356</v>
       </c>
       <c r="P12">
-        <v>0.9998759764350872</v>
+        <v>0.9996119917590107</v>
       </c>
       <c r="Q12">
-        <v>0.9998759764350872</v>
+        <v>0.9996119917590107</v>
       </c>
       <c r="R12">
-        <v>0.9999534896789468</v>
+        <v>0.9998544902346591</v>
       </c>
       <c r="S12">
-        <v>0.9999534896789468</v>
+        <v>0.9998544902346591</v>
       </c>
       <c r="T12">
-        <v>0.9999834625298242</v>
+        <v>0.9999482605932511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998855354324421</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="D13">
-        <v>1.000457854987982</v>
+        <v>0.9985453291719941</v>
       </c>
       <c r="E13">
-        <v>1.000457854987982</v>
+        <v>0.9985453291719941</v>
       </c>
       <c r="F13">
-        <v>0.9998855354324421</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="G13">
-        <v>0.9998855354324421</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="H13">
-        <v>0.999694763146775</v>
+        <v>1.0009697832834</v>
       </c>
       <c r="I13">
-        <v>1.000251820771277</v>
+        <v>0.9991999318335034</v>
       </c>
       <c r="J13">
-        <v>0.9998855354324421</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="K13">
-        <v>0.9998855354324421</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="L13">
-        <v>0.9998855354324421</v>
+        <v>1.00036366671491</v>
       </c>
       <c r="M13">
-        <v>1.000171695210212</v>
+        <v>0.9994544979434519</v>
       </c>
       <c r="N13">
-        <v>1.000171695210212</v>
+        <v>0.9994544979434519</v>
       </c>
       <c r="O13">
-        <v>1.000198403730567</v>
+        <v>0.9993696425734692</v>
       </c>
       <c r="P13">
-        <v>1.000076308617622</v>
+        <v>0.9997575542006044</v>
       </c>
       <c r="Q13">
-        <v>1.000076308617622</v>
+        <v>0.9997575542006044</v>
       </c>
       <c r="R13">
-        <v>1.000028615321327</v>
+        <v>0.9999090823291807</v>
       </c>
       <c r="S13">
-        <v>1.000028615321327</v>
+        <v>0.9999090823291807</v>
       </c>
       <c r="T13">
-        <v>1.00001017420056</v>
+        <v>0.9999676740722711</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0010055</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="D14">
-        <v>0.9959779000000001</v>
+        <v>0.9992558704842092</v>
       </c>
       <c r="E14">
-        <v>0.9959779000000001</v>
+        <v>0.9992558704842092</v>
       </c>
       <c r="F14">
-        <v>1.0010055</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="G14">
-        <v>1.0010055</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="H14">
-        <v>1.0026814</v>
+        <v>1.000496087284209</v>
       </c>
       <c r="I14">
-        <v>0.9977878500000004</v>
+        <v>0.9995907291789488</v>
       </c>
       <c r="J14">
-        <v>1.0010055</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="K14">
-        <v>1.0010055</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="L14">
-        <v>1.0010055</v>
+        <v>1.000186029410526</v>
       </c>
       <c r="M14">
-        <v>0.9984917</v>
+        <v>0.9997209499473676</v>
       </c>
       <c r="N14">
-        <v>0.9984917</v>
+        <v>0.9997209499473676</v>
       </c>
       <c r="O14">
-        <v>0.9982570833333334</v>
+        <v>0.9996775430245614</v>
       </c>
       <c r="P14">
-        <v>0.9993296333333334</v>
+        <v>0.9998759764350872</v>
       </c>
       <c r="Q14">
-        <v>0.9993296333333334</v>
+        <v>0.9998759764350872</v>
       </c>
       <c r="R14">
-        <v>0.9997486</v>
+        <v>0.9999534896789468</v>
       </c>
       <c r="S14">
-        <v>0.9997486</v>
+        <v>0.9999534896789468</v>
       </c>
       <c r="T14">
-        <v>0.9999106083333333</v>
+        <v>0.9999834625298242</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0010055</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="D15">
-        <v>0.9959779000000001</v>
+        <v>1.000457854987982</v>
       </c>
       <c r="E15">
-        <v>0.9959779000000001</v>
+        <v>1.000457854987982</v>
       </c>
       <c r="F15">
-        <v>1.0010055</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="G15">
-        <v>1.0010055</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="H15">
-        <v>1.0026814</v>
+        <v>0.999694763146775</v>
       </c>
       <c r="I15">
-        <v>0.99778785</v>
+        <v>1.000251820771277</v>
       </c>
       <c r="J15">
-        <v>1.0010055</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>0.9998855354324421</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>1.000171695210212</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>1.000171695210212</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>1.000198403730567</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>1.000076308617622</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>1.000076308617622</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>1.000028615321327</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>1.000028615321327</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>1.00001017420056</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
+        <v>1.0010055</v>
+      </c>
+      <c r="D16">
+        <v>0.9959779000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.9959779000000001</v>
+      </c>
+      <c r="F16">
+        <v>1.0010055</v>
+      </c>
+      <c r="G16">
+        <v>1.0010055</v>
+      </c>
+      <c r="H16">
         <v>1.0026814</v>
       </c>
-      <c r="D16">
-        <v>0.98927441</v>
-      </c>
-      <c r="E16">
-        <v>0.98927441</v>
-      </c>
-      <c r="F16">
-        <v>1.0026814</v>
-      </c>
-      <c r="G16">
-        <v>1.0026814</v>
-      </c>
-      <c r="H16">
-        <v>1.0071504</v>
-      </c>
       <c r="I16">
-        <v>0.9941009200000001</v>
+        <v>0.9977878500000004</v>
       </c>
       <c r="J16">
-        <v>1.0026814</v>
+        <v>1.0010055</v>
       </c>
       <c r="K16">
-        <v>1.0026814</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>1.0026814</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>0.9959779049999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="N16">
-        <v>0.9959779049999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="O16">
-        <v>0.9953522433333334</v>
+        <v>0.9982570833333334</v>
       </c>
       <c r="P16">
-        <v>0.9982124033333332</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q16">
-        <v>0.9982124033333332</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R16">
-        <v>0.9993296524999999</v>
+        <v>0.9997486</v>
       </c>
       <c r="S16">
-        <v>0.9993296524999999</v>
+        <v>0.9997486</v>
       </c>
       <c r="T16">
-        <v>0.999761655</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="D17">
-        <v>0.99974862</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E17">
-        <v>0.99974862</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="G17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="H17">
-        <v>1.0001676</v>
+        <v>1.0026814</v>
       </c>
       <c r="I17">
-        <v>0.9998617400000001</v>
+        <v>0.99778785</v>
       </c>
       <c r="J17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="K17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>0.9999057099999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>0.9999057099999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>0.9998910533333333</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>0.9999580733333332</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>0.9999580733333332</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>0.999984255</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>0.999984255</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>0.9999943933333334</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000385675342466</v>
+        <v>1.0026814</v>
       </c>
       <c r="D18">
-        <v>0.9984572854794522</v>
+        <v>0.98927441</v>
       </c>
       <c r="E18">
-        <v>0.9984572854794522</v>
+        <v>0.98927441</v>
       </c>
       <c r="F18">
-        <v>1.000385675342466</v>
+        <v>1.0026814</v>
       </c>
       <c r="G18">
-        <v>1.000385675342466</v>
+        <v>1.0026814</v>
       </c>
       <c r="H18">
-        <v>1.001028480547945</v>
+        <v>1.0071504</v>
       </c>
       <c r="I18">
-        <v>0.9991514984931507</v>
+        <v>0.9941009200000001</v>
       </c>
       <c r="J18">
-        <v>1.000385675342466</v>
+        <v>1.0026814</v>
       </c>
       <c r="K18">
-        <v>1.000385675342466</v>
+        <v>1.0026814</v>
       </c>
       <c r="L18">
-        <v>1.000385675342466</v>
+        <v>1.0026814</v>
       </c>
       <c r="M18">
-        <v>0.999421480410959</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="N18">
-        <v>0.999421480410959</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="O18">
-        <v>0.9993314864383563</v>
+        <v>0.9953522433333334</v>
       </c>
       <c r="P18">
-        <v>0.9997428787214613</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q18">
-        <v>0.9997428787214613</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R18">
-        <v>0.9999035778767125</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S18">
-        <v>0.9999035778767125</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T18">
-        <v>0.9999657150913244</v>
+        <v>0.999761655</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000454244736842</v>
+        <v>1.0000628</v>
       </c>
       <c r="D19">
-        <v>0.9981830073684212</v>
+        <v>0.99974862</v>
       </c>
       <c r="E19">
-        <v>0.9981830073684212</v>
+        <v>0.99974862</v>
       </c>
       <c r="F19">
-        <v>1.000454244736842</v>
+        <v>1.0000628</v>
       </c>
       <c r="G19">
-        <v>1.000454244736842</v>
+        <v>1.0000628</v>
       </c>
       <c r="H19">
-        <v>1.001211332631579</v>
+        <v>1.0001676</v>
       </c>
       <c r="I19">
-        <v>0.9990006457894739</v>
+        <v>0.9998617400000001</v>
       </c>
       <c r="J19">
-        <v>1.000454244736842</v>
+        <v>1.0000628</v>
       </c>
       <c r="K19">
-        <v>1.000454244736842</v>
+        <v>1.0000628</v>
       </c>
       <c r="L19">
-        <v>1.000454244736842</v>
+        <v>1.0000628</v>
       </c>
       <c r="M19">
-        <v>0.9993186260526317</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="N19">
-        <v>0.9993186260526317</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="O19">
-        <v>0.9992126326315791</v>
+        <v>0.9998910533333333</v>
       </c>
       <c r="P19">
-        <v>0.9996971656140351</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="Q19">
-        <v>0.9996971656140351</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="R19">
-        <v>0.9998864353947368</v>
+        <v>0.999984255</v>
       </c>
       <c r="S19">
-        <v>0.9998864353947368</v>
+        <v>0.999984255</v>
       </c>
       <c r="T19">
-        <v>0.9999596199999999</v>
+        <v>0.9999943933333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.0010055</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="D20">
-        <v>0.9959779000000002</v>
+        <v>0.9984572854794522</v>
       </c>
       <c r="E20">
-        <v>0.9959779000000002</v>
+        <v>0.9984572854794522</v>
       </c>
       <c r="F20">
-        <v>1.0010055</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="G20">
-        <v>1.0010055</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="H20">
-        <v>1.0026814</v>
+        <v>1.001028480547945</v>
       </c>
       <c r="I20">
-        <v>0.9977878499999998</v>
+        <v>0.9991514984931507</v>
       </c>
       <c r="J20">
-        <v>1.0010055</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="K20">
-        <v>1.0010055</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="L20">
-        <v>1.0010055</v>
+        <v>1.000385675342466</v>
       </c>
       <c r="M20">
-        <v>0.9984917000000003</v>
+        <v>0.999421480410959</v>
       </c>
       <c r="N20">
-        <v>0.9984917000000003</v>
+        <v>0.999421480410959</v>
       </c>
       <c r="O20">
-        <v>0.9982570833333334</v>
+        <v>0.9993314864383563</v>
       </c>
       <c r="P20">
-        <v>0.9993296333333337</v>
+        <v>0.9997428787214613</v>
       </c>
       <c r="Q20">
-        <v>0.9993296333333337</v>
+        <v>0.9997428787214613</v>
       </c>
       <c r="R20">
-        <v>0.9997486000000004</v>
+        <v>0.9999035778767125</v>
       </c>
       <c r="S20">
-        <v>0.9997486000000004</v>
+        <v>0.9999035778767125</v>
       </c>
       <c r="T20">
-        <v>0.9999106083333337</v>
+        <v>0.9999657150913244</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9991987576358312</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="D21">
-        <v>1.003204966717466</v>
+        <v>0.9981830073684212</v>
       </c>
       <c r="E21">
-        <v>1.003204966717466</v>
+        <v>0.9981830073684212</v>
       </c>
       <c r="F21">
-        <v>0.9991987576358312</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="G21">
-        <v>0.9991987576358312</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="H21">
-        <v>0.9978633559699731</v>
+        <v>1.001211332631579</v>
       </c>
       <c r="I21">
-        <v>1.001762729985097</v>
+        <v>0.9990006457894739</v>
       </c>
       <c r="J21">
-        <v>0.9991987576358312</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="K21">
-        <v>0.9991987576358312</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="L21">
-        <v>0.9991987576358312</v>
+        <v>1.000454244736842</v>
       </c>
       <c r="M21">
-        <v>1.001201862176649</v>
+        <v>0.9993186260526317</v>
       </c>
       <c r="N21">
-        <v>1.001201862176649</v>
+        <v>0.9993186260526317</v>
       </c>
       <c r="O21">
-        <v>1.001388818112798</v>
+        <v>0.9992126326315791</v>
       </c>
       <c r="P21">
-        <v>1.000534160663043</v>
+        <v>0.9996971656140351</v>
       </c>
       <c r="Q21">
-        <v>1.000534160663043</v>
+        <v>0.9996971656140351</v>
       </c>
       <c r="R21">
-        <v>1.00020030990624</v>
+        <v>0.9998864353947368</v>
       </c>
       <c r="S21">
-        <v>1.00020030990624</v>
+        <v>0.9998864353947368</v>
       </c>
       <c r="T21">
-        <v>1.000071220930005</v>
+        <v>0.9999596199999999</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="D22">
-        <v>1.000855599207405</v>
+        <v>0.9959779000000002</v>
       </c>
       <c r="E22">
-        <v>1.000855599207405</v>
+        <v>0.9959779000000002</v>
       </c>
       <c r="F22">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="G22">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="H22">
-        <v>0.9994296012504473</v>
+        <v>1.0026814</v>
       </c>
       <c r="I22">
-        <v>1.000470581567174</v>
+        <v>0.9977878499999998</v>
       </c>
       <c r="J22">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="K22">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="L22">
-        <v>0.9997860993542457</v>
+        <v>1.0010055</v>
       </c>
       <c r="M22">
-        <v>1.000320849280825</v>
+        <v>0.9984917000000003</v>
       </c>
       <c r="N22">
-        <v>1.000320849280825</v>
+        <v>0.9984917000000003</v>
       </c>
       <c r="O22">
-        <v>1.000370760042941</v>
+        <v>0.9982570833333334</v>
       </c>
       <c r="P22">
-        <v>1.000142599305299</v>
+        <v>0.9993296333333337</v>
       </c>
       <c r="Q22">
-        <v>1.000142599305299</v>
+        <v>0.9993296333333337</v>
       </c>
       <c r="R22">
-        <v>1.000053474317536</v>
+        <v>0.9997486000000004</v>
       </c>
       <c r="S22">
-        <v>1.000053474317536</v>
+        <v>0.9997486000000004</v>
       </c>
       <c r="T22">
-        <v>1.000019013347961</v>
+        <v>0.9999106083333337</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9997438839930276</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="D23">
-        <v>1.001024454427962</v>
+        <v>1.003204966717466</v>
       </c>
       <c r="E23">
-        <v>1.001024454427962</v>
+        <v>1.003204966717466</v>
       </c>
       <c r="F23">
-        <v>0.9997438839930276</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="G23">
-        <v>0.9997438839930276</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="H23">
-        <v>0.9993170335654566</v>
+        <v>0.9978633559699731</v>
       </c>
       <c r="I23">
-        <v>1.000563447471753</v>
+        <v>1.001762729985097</v>
       </c>
       <c r="J23">
-        <v>0.9997438839930276</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="K23">
-        <v>0.9997438839930276</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="L23">
-        <v>0.9997438839930276</v>
+        <v>0.9991987576358312</v>
       </c>
       <c r="M23">
-        <v>1.000384169210495</v>
+        <v>1.001201862176649</v>
       </c>
       <c r="N23">
-        <v>1.000384169210495</v>
+        <v>1.001201862176649</v>
       </c>
       <c r="O23">
-        <v>1.000443928630914</v>
+        <v>1.001388818112798</v>
       </c>
       <c r="P23">
-        <v>1.000170740804672</v>
+        <v>1.000534160663043</v>
       </c>
       <c r="Q23">
-        <v>1.000170740804672</v>
+        <v>1.000534160663043</v>
       </c>
       <c r="R23">
-        <v>1.000064026601761</v>
+        <v>1.00020030990624</v>
       </c>
       <c r="S23">
-        <v>1.000064026601761</v>
+        <v>1.00020030990624</v>
       </c>
       <c r="T23">
-        <v>1.000022764574042</v>
+        <v>1.000071220930005</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9999335888361707</v>
+        <v>0.9997860993542457</v>
       </c>
       <c r="D24">
-        <v>1.000265646361155</v>
+        <v>1.000855599207405</v>
       </c>
       <c r="E24">
-        <v>1.000265646361155</v>
+        <v>1.000855599207405</v>
       </c>
       <c r="F24">
-        <v>0.9999335888361707</v>
+        <v>0.9997860993542457</v>
       </c>
       <c r="G24">
-        <v>0.9999335888361707</v>
+        <v>0.9997860993542457</v>
       </c>
       <c r="H24">
-        <v>0.9998229023328564</v>
+        <v>0.9994296012504473</v>
       </c>
       <c r="I24">
-        <v>1.000146100462313</v>
+        <v>1.000470581567174</v>
       </c>
       <c r="J24">
-        <v>0.9999335888361707</v>
+        <v>0.9997860993542457</v>
       </c>
       <c r="K24">
-        <v>0.9999335888361707</v>
+        <v>0.9997860993542457</v>
       </c>
       <c r="L24">
-        <v>0.9999335888361707</v>
+        <v>0.9997860993542457</v>
       </c>
       <c r="M24">
-        <v>1.000099617598663</v>
+        <v>1.000320849280825</v>
       </c>
       <c r="N24">
-        <v>1.000099617598663</v>
+        <v>1.000320849280825</v>
       </c>
       <c r="O24">
-        <v>1.000115111886546</v>
+        <v>1.000370760042941</v>
       </c>
       <c r="P24">
-        <v>1.000044274677832</v>
+        <v>1.000142599305299</v>
       </c>
       <c r="Q24">
-        <v>1.000044274677832</v>
+        <v>1.000142599305299</v>
       </c>
       <c r="R24">
-        <v>1.000016603217417</v>
+        <v>1.000053474317536</v>
       </c>
       <c r="S24">
-        <v>1.000016603217417</v>
+        <v>1.000053474317536</v>
       </c>
       <c r="T24">
-        <v>1.000005902610806</v>
+        <v>1.000019013347961</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.000786374451999</v>
+        <v>0.9997438839930276</v>
       </c>
       <c r="D25">
-        <v>0.9968544722509313</v>
+        <v>1.001024454427962</v>
       </c>
       <c r="E25">
-        <v>0.9968544722509313</v>
+        <v>1.001024454427962</v>
       </c>
       <c r="F25">
-        <v>1.000786374451999</v>
+        <v>0.9997438839930276</v>
       </c>
       <c r="G25">
-        <v>1.000786374451999</v>
+        <v>0.9997438839930276</v>
       </c>
       <c r="H25">
-        <v>1.002097016214017</v>
+        <v>0.9993170335654566</v>
       </c>
       <c r="I25">
-        <v>0.998269960179113</v>
+        <v>1.000563447471753</v>
       </c>
       <c r="J25">
-        <v>1.000786374451999</v>
+        <v>0.9997438839930276</v>
       </c>
       <c r="K25">
-        <v>1.000786374451999</v>
+        <v>0.9997438839930276</v>
       </c>
       <c r="L25">
-        <v>1.000786374451999</v>
+        <v>0.9997438839930276</v>
       </c>
       <c r="M25">
-        <v>0.998820423351465</v>
+        <v>1.000384169210495</v>
       </c>
       <c r="N25">
-        <v>0.998820423351465</v>
+        <v>1.000384169210495</v>
       </c>
       <c r="O25">
-        <v>0.9986369356273478</v>
+        <v>1.000443928630914</v>
       </c>
       <c r="P25">
-        <v>0.9994757403849762</v>
+        <v>1.000170740804672</v>
       </c>
       <c r="Q25">
-        <v>0.9994757403849762</v>
+        <v>1.000170740804672</v>
       </c>
       <c r="R25">
-        <v>0.9998033989017319</v>
+        <v>1.000064026601761</v>
       </c>
       <c r="S25">
-        <v>0.9998033989017319</v>
+        <v>1.000064026601761</v>
       </c>
       <c r="T25">
-        <v>0.9999300953333429</v>
+        <v>1.000022764574042</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000210634089358</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="D26">
-        <v>0.9991574535628811</v>
+        <v>1.000265646361155</v>
       </c>
       <c r="E26">
-        <v>0.9991574535628811</v>
+        <v>1.000265646361155</v>
       </c>
       <c r="F26">
-        <v>1.000210634089358</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="G26">
-        <v>1.000210634089358</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="H26">
-        <v>1.000561703341955</v>
+        <v>0.9998229023328564</v>
       </c>
       <c r="I26">
-        <v>0.9995365973707515</v>
+        <v>1.000146100462313</v>
       </c>
       <c r="J26">
-        <v>1.000210634089358</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="K26">
-        <v>1.000210634089358</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="L26">
-        <v>1.000210634089358</v>
+        <v>0.9999335888361707</v>
       </c>
       <c r="M26">
-        <v>0.9996840438261193</v>
+        <v>1.000099617598663</v>
       </c>
       <c r="N26">
-        <v>0.9996840438261193</v>
+        <v>1.000099617598663</v>
       </c>
       <c r="O26">
-        <v>0.9996348950076633</v>
+        <v>1.000115111886546</v>
       </c>
       <c r="P26">
-        <v>0.9998595739138653</v>
+        <v>1.000044274677832</v>
       </c>
       <c r="Q26">
-        <v>0.9998595739138653</v>
+        <v>1.000044274677832</v>
       </c>
       <c r="R26">
-        <v>0.9999473389577384</v>
+        <v>1.000016603217417</v>
       </c>
       <c r="S26">
-        <v>0.9999473389577384</v>
+        <v>1.000016603217417</v>
       </c>
       <c r="T26">
-        <v>0.9999812760906099</v>
+        <v>1.000005902610806</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000059921564294</v>
+        <v>1.000786374451999</v>
       </c>
       <c r="D27">
-        <v>0.9997602726248846</v>
+        <v>0.9968544722509313</v>
       </c>
       <c r="E27">
-        <v>0.9997602726248846</v>
+        <v>0.9968544722509313</v>
       </c>
       <c r="F27">
-        <v>1.000059921564294</v>
+        <v>1.000786374451999</v>
       </c>
       <c r="G27">
-        <v>1.000059921564294</v>
+        <v>1.000786374451999</v>
       </c>
       <c r="H27">
-        <v>1.000159814687509</v>
+        <v>1.002097016214017</v>
       </c>
       <c r="I27">
-        <v>0.9998681701672115</v>
+        <v>0.998269960179113</v>
       </c>
       <c r="J27">
-        <v>1.000059921564294</v>
+        <v>1.000786374451999</v>
       </c>
       <c r="K27">
-        <v>1.000059921564294</v>
+        <v>1.000786374451999</v>
       </c>
       <c r="L27">
-        <v>1.000059921564294</v>
+        <v>1.000786374451999</v>
       </c>
       <c r="M27">
-        <v>0.9999100970945893</v>
+        <v>0.998820423351465</v>
       </c>
       <c r="N27">
-        <v>0.9999100970945893</v>
+        <v>0.998820423351465</v>
       </c>
       <c r="O27">
-        <v>0.9998961214521301</v>
+        <v>0.9986369356273478</v>
       </c>
       <c r="P27">
-        <v>0.9999600385844909</v>
+        <v>0.9994757403849762</v>
       </c>
       <c r="Q27">
-        <v>0.9999600385844909</v>
+        <v>0.9994757403849762</v>
       </c>
       <c r="R27">
-        <v>0.9999850093294417</v>
+        <v>0.9998033989017319</v>
       </c>
       <c r="S27">
-        <v>0.9999850093294417</v>
+        <v>0.9998033989017319</v>
       </c>
       <c r="T27">
-        <v>0.9999946703620811</v>
+        <v>0.9999300953333429</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000104010651983</v>
+        <v>1.000210634089358</v>
       </c>
       <c r="D28">
-        <v>0.999583941443181</v>
+        <v>0.9991574535628811</v>
       </c>
       <c r="E28">
-        <v>0.999583941443181</v>
+        <v>0.9991574535628811</v>
       </c>
       <c r="F28">
-        <v>1.000104010651983</v>
+        <v>1.000210634089358</v>
       </c>
       <c r="G28">
-        <v>1.000104010651983</v>
+        <v>1.000210634089358</v>
       </c>
       <c r="H28">
-        <v>1.000277374774564</v>
+        <v>1.000561703341955</v>
       </c>
       <c r="I28">
-        <v>0.9997711622563981</v>
+        <v>0.9995365973707515</v>
       </c>
       <c r="J28">
-        <v>1.000104010651983</v>
+        <v>1.000210634089358</v>
       </c>
       <c r="K28">
-        <v>1.000104010651983</v>
+        <v>1.000210634089358</v>
       </c>
       <c r="L28">
-        <v>1.000104010651983</v>
+        <v>1.000210634089358</v>
       </c>
       <c r="M28">
-        <v>0.9998439760475821</v>
+        <v>0.9996840438261193</v>
       </c>
       <c r="N28">
-        <v>0.9998439760475821</v>
+        <v>0.9996840438261193</v>
       </c>
       <c r="O28">
-        <v>0.9998197047838541</v>
+        <v>0.9996348950076633</v>
       </c>
       <c r="P28">
-        <v>0.9999306542490493</v>
+        <v>0.9998595739138653</v>
       </c>
       <c r="Q28">
-        <v>0.9999306542490493</v>
+        <v>0.9998595739138653</v>
       </c>
       <c r="R28">
-        <v>0.9999739933497829</v>
+        <v>0.9999473389577384</v>
       </c>
       <c r="S28">
-        <v>0.9999739933497829</v>
+        <v>0.9999473389577384</v>
       </c>
       <c r="T28">
-        <v>0.9999907517383488</v>
+        <v>0.9999812760906099</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="D29">
+        <v>0.9997602726248846</v>
+      </c>
+      <c r="E29">
+        <v>0.9997602726248846</v>
+      </c>
+      <c r="F29">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="G29">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="H29">
+        <v>1.000159814687509</v>
+      </c>
+      <c r="I29">
+        <v>0.9998681701672115</v>
+      </c>
+      <c r="J29">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="K29">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="L29">
+        <v>1.000059921564294</v>
+      </c>
+      <c r="M29">
+        <v>0.9999100970945893</v>
+      </c>
+      <c r="N29">
+        <v>0.9999100970945893</v>
+      </c>
+      <c r="O29">
+        <v>0.9998961214521301</v>
+      </c>
+      <c r="P29">
+        <v>0.9999600385844909</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999600385844909</v>
+      </c>
+      <c r="R29">
+        <v>0.9999850093294417</v>
+      </c>
+      <c r="S29">
+        <v>0.9999850093294417</v>
+      </c>
+      <c r="T29">
+        <v>0.9999946703620811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="D30">
+        <v>0.999583941443181</v>
+      </c>
+      <c r="E30">
+        <v>0.999583941443181</v>
+      </c>
+      <c r="F30">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="G30">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="H30">
+        <v>1.000277374774564</v>
+      </c>
+      <c r="I30">
+        <v>0.9997711622563981</v>
+      </c>
+      <c r="J30">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="K30">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="L30">
+        <v>1.000104010651983</v>
+      </c>
+      <c r="M30">
+        <v>0.9998439760475821</v>
+      </c>
+      <c r="N30">
+        <v>0.9998439760475821</v>
+      </c>
+      <c r="O30">
+        <v>0.9998197047838541</v>
+      </c>
+      <c r="P30">
+        <v>0.9999306542490493</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999306542490493</v>
+      </c>
+      <c r="R30">
+        <v>0.9999739933497829</v>
+      </c>
+      <c r="S30">
+        <v>0.9999739933497829</v>
+      </c>
+      <c r="T30">
+        <v>0.9999907517383488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9999126276123232</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000349452403289</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.000349452403289</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9999126276123232</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9999126276123232</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.999767024522735</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000192189720186</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9999126276123232</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9999126276123232</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9999126276123232</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000131040007806</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000131040007806</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000151423245266</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000058235875978</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000058235875978</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000021833810065</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000021833810065</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000007758247196</v>
       </c>
     </row>
